--- a/data-viz/inputs/report_outline.xlsx
+++ b/data-viz/inputs/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icoddington\Github\eu-thematic-reports\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D34CD-F904-4255-BED4-CC907839E0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769357B-3C2A-4E61-8EF8-5A31FF0D6D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="10290" windowHeight="9240" xr2:uid="{E4E80D87-C70E-4028-A5D2-942CA65BEF0E}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{E4E80D87-C70E-4028-A5D2-942CA65BEF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="335">
   <si>
     <t>report</t>
   </si>
@@ -131,9 +131,6 @@
     <t>% "Strongly agree" or "Agree"</t>
   </si>
   <si>
-    <t>Map (regions) with table (country)</t>
-  </si>
-  <si>
     <t>People know where to get information and advice when they face a legal problem.</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>% "A lot" or "Some" / % "Most of them" or "All of them"</t>
   </si>
   <si>
-    <t>Scatterplot combining trust and corruption</t>
-  </si>
-  <si>
     <t>Figure 8.2. Trust in the Police and Perceptions of Corruption</t>
   </si>
   <si>
@@ -477,9 +471,6 @@
   </si>
   <si>
     <t>Percentage of respondents who agree that the criminal justice system provides victims of crime with the service and support they need</t>
-  </si>
-  <si>
-    <t>Dumbell chart</t>
   </si>
   <si>
     <t xml:space="preserve">Functions the same regardless of where you live? </t>
@@ -598,9 +589,6 @@
     <t>Percentage of respondents who agree that the criminal justice system guarantees the safety and human rights of people deprived of their liberty</t>
   </si>
   <si>
-    <t>Dumbbell chart</t>
-  </si>
-  <si>
     <t>CJP_saferights</t>
   </si>
   <si>
@@ -997,18 +985,12 @@
     <t>q187</t>
   </si>
   <si>
-    <t>Dumbell Chart</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>country</t>
   </si>
   <si>
-    <t>Figure 2.1. Access to Legal Aid and Representation</t>
-  </si>
-  <si>
     <t>positive / negative</t>
   </si>
   <si>
@@ -1055,6 +1037,15 @@
   </si>
   <si>
     <t>TRT_pda</t>
+  </si>
+  <si>
+    <t>dumbell</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>scatterplot</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B889B-2B8F-47B3-B684-D177E81CA62D}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1549,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>7</v>
@@ -1594,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -1603,10 +1594,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1621,10 +1612,10 @@
         <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1648,13 +1639,13 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>24</v>
@@ -1675,7 +1666,7 @@
         <v>29</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1696,25 +1687,25 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>20</v>
@@ -1726,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1737,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -1747,23 +1738,21 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K5" t="s">
-        <v>321</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K5"/>
       <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1774,10 +1763,10 @@
         <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1788,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -1798,25 +1787,25 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>20</v>
@@ -1828,7 +1817,7 @@
         <v>29</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1839,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
@@ -1849,22 +1838,22 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K7" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>19</v>
@@ -1876,10 +1865,10 @@
         <v>21</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1890,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -1900,25 +1889,25 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>20</v>
@@ -1930,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1941,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -1951,25 +1940,25 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>20</v>
@@ -1981,7 +1970,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1992,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>22</v>
@@ -2002,23 +1991,23 @@
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2026,10 +2015,10 @@
         <v>21</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2040,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -2050,25 +2039,25 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>20</v>
@@ -2080,7 +2069,7 @@
         <v>29</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2091,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -2101,25 +2090,25 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>20</v>
@@ -2131,7 +2120,7 @@
         <v>29</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2142,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
@@ -2152,25 +2141,25 @@
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>20</v>
@@ -2182,7 +2171,7 @@
         <v>29</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2193,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
@@ -2203,25 +2192,25 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>20</v>
@@ -2233,7 +2222,7 @@
         <v>29</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2244,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -2254,25 +2243,25 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>20</v>
@@ -2284,7 +2273,7 @@
         <v>29</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2295,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>22</v>
@@ -2305,22 +2294,22 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>19</v>
@@ -2332,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2346,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
@@ -2356,25 +2345,25 @@
         <v>16</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G17" t="s">
-        <v>284</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>20</v>
@@ -2386,7 +2375,7 @@
         <v>29</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2397,32 +2386,32 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>19</v>
@@ -2434,10 +2423,10 @@
         <v>21</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2448,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
@@ -2458,25 +2447,25 @@
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>20</v>
@@ -2488,7 +2477,7 @@
         <v>29</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2496,10 +2485,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>22</v>
@@ -2509,22 +2498,22 @@
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" t="s">
         <v>92</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" t="s">
-        <v>93</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>19</v>
@@ -2536,10 +2525,10 @@
         <v>21</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2547,10 +2536,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
@@ -2560,37 +2549,37 @@
         <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="P21" s="11" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2598,10 +2587,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -2611,25 +2600,25 @@
         <v>21</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>20</v>
@@ -2641,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2649,10 +2638,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
@@ -2662,25 +2651,25 @@
         <v>22</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>20</v>
@@ -2692,7 +2681,7 @@
         <v>29</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2700,10 +2689,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>22</v>
@@ -2713,22 +2702,22 @@
         <v>23</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>19</v>
@@ -2740,10 +2729,10 @@
         <v>21</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2751,10 +2740,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -2764,37 +2753,37 @@
         <v>24</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2802,10 +2791,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
@@ -2815,25 +2804,25 @@
         <v>25</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>20</v>
@@ -2845,7 +2834,7 @@
         <v>29</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2853,10 +2842,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
@@ -2866,25 +2855,25 @@
         <v>26</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G27" t="s">
-        <v>291</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>20</v>
@@ -2896,7 +2885,7 @@
         <v>29</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2904,10 +2893,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>22</v>
@@ -2917,22 +2906,22 @@
         <v>27</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>19</v>
@@ -2944,7 +2933,7 @@
         <v>21</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2952,10 +2941,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
@@ -2965,37 +2954,37 @@
         <v>28</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3003,10 +2992,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
@@ -3016,25 +3005,25 @@
         <v>29</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>20</v>
@@ -3046,7 +3035,7 @@
         <v>29</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3054,10 +3043,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>22</v>
@@ -3067,22 +3056,22 @@
         <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>19</v>
@@ -3094,10 +3083,10 @@
         <v>21</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3105,10 +3094,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>22</v>
@@ -3118,22 +3107,22 @@
         <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>19</v>
@@ -3145,10 +3134,10 @@
         <v>21</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3156,10 +3145,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
@@ -3169,37 +3158,37 @@
         <v>32</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3207,10 +3196,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
@@ -3220,25 +3209,25 @@
         <v>33</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>20</v>
@@ -3250,7 +3239,7 @@
         <v>29</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3258,10 +3247,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
@@ -3271,25 +3260,25 @@
         <v>34</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>20</v>
@@ -3301,7 +3290,7 @@
         <v>29</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3309,10 +3298,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
@@ -3322,25 +3311,25 @@
         <v>35</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>20</v>
@@ -3352,7 +3341,7 @@
         <v>29</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3360,10 +3349,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>22</v>
@@ -3373,22 +3362,22 @@
         <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>19</v>
@@ -3400,10 +3389,10 @@
         <v>21</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3411,10 +3400,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
@@ -3424,37 +3413,37 @@
         <v>37</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="N38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="P38" s="11" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3462,10 +3451,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -3475,25 +3464,25 @@
         <v>38</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>20</v>
@@ -3505,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3513,10 +3502,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -3526,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>20</v>
@@ -3556,7 +3545,7 @@
         <v>29</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3564,10 +3553,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
@@ -3577,25 +3566,25 @@
         <v>40</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>20</v>
@@ -3607,7 +3596,7 @@
         <v>29</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3615,10 +3604,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
@@ -3628,25 +3617,25 @@
         <v>41</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>20</v>
@@ -3658,7 +3647,7 @@
         <v>29</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3666,10 +3655,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
@@ -3679,22 +3668,22 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>20</v>
@@ -3706,7 +3695,7 @@
         <v>29</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3714,10 +3703,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>22</v>
@@ -3727,22 +3716,22 @@
         <v>43</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>19</v>
@@ -3754,10 +3743,10 @@
         <v>21</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3765,10 +3754,10 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
@@ -3778,25 +3767,25 @@
         <v>44</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>20</v>
@@ -3808,7 +3797,7 @@
         <v>29</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3816,10 +3805,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
@@ -3829,37 +3818,37 @@
         <v>45</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="P46" s="3" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3867,10 +3856,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>23</v>
@@ -3880,26 +3869,26 @@
         <v>46</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s">
+        <v>190</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>20</v>
       </c>
@@ -3907,10 +3896,10 @@
         <v>21</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3918,10 +3907,10 @@
         <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -3931,35 +3920,35 @@
         <v>47</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K48" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="M48" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>29</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3967,10 +3956,10 @@
         <v>14</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
@@ -3980,35 +3969,35 @@
         <v>48</v>
       </c>
       <c r="F49" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="L49" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="L49" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="M49" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4019,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -4029,35 +4018,35 @@
         <v>49</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4068,7 +4057,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -4078,35 +4067,35 @@
         <v>50</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4117,7 +4106,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -4127,35 +4116,35 @@
         <v>51</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K52" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="M52" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4166,7 +4155,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
@@ -4176,35 +4165,35 @@
         <v>52</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M53" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4215,7 +4204,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -4225,35 +4214,35 @@
         <v>53</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K54" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L54" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="M54" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4264,7 +4253,7 @@
         <v>15</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -4274,35 +4263,35 @@
         <v>54</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="O55" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="K55" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="O55" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="P55" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4313,7 +4302,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
@@ -4323,35 +4312,35 @@
         <v>55</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4362,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
@@ -4372,35 +4361,35 @@
         <v>56</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K57" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L57" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>263</v>
-      </c>
       <c r="M57" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4411,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
@@ -4421,35 +4410,35 @@
         <v>57</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="L58" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L58" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="M58" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4460,7 +4449,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>23</v>
@@ -4470,35 +4459,35 @@
         <v>58</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4509,7 +4498,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
@@ -4519,35 +4508,35 @@
         <v>59</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K60" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="O60" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="O60" s="11" t="s">
-        <v>272</v>
-      </c>
       <c r="P60" s="11" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data-viz/inputs/report_outline.xlsx
+++ b/data-viz/inputs/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icoddington\Github\eu-thematic-reports\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E57D8-F5F9-4FC7-8AF6-FA620C8C9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C4E75D-0193-40E8-B970-7BE4588E26FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E4E80D87-C70E-4028-A5D2-942CA65BEF0E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="801">
   <si>
     <t>report</t>
   </si>
@@ -796,25 +796,100 @@
     <t>Legal Capability</t>
   </si>
   <si>
+    <t>Awareness of Legal Rights</t>
+  </si>
+  <si>
+    <t>Access to Legal Information and Advice</t>
+  </si>
+  <si>
     <t>Access to Legal Aid and Representation</t>
   </si>
   <si>
+    <t>Access to Affordable Legal Assitance and Representation</t>
+  </si>
+  <si>
     <t>Accessible, Appropriate and Timely Dispute Resolution</t>
   </si>
   <si>
+    <t>Access to Affordable State Dispute Resolution Mechanisms</t>
+  </si>
+  <si>
+    <t>Timely Adjudication by Civil and Commercial Courts</t>
+  </si>
+  <si>
     <t>Impartial and Independent Dispute Resolution in the Civil Justice System</t>
   </si>
   <si>
+    <t>Fairness in State Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Equality and Fair Treatment in the Civil Justice System</t>
+  </si>
+  <si>
+    <t>Local Courts are Free of Corruption</t>
+  </si>
+  <si>
+    <t>Independence of Local Courts</t>
+  </si>
+  <si>
+    <t>Independence of Judges</t>
+  </si>
+  <si>
     <t>Outcome-Oriented and Effective Dispute Resolution in the Civil Justice System</t>
   </si>
   <si>
+    <t>Enforcement of Court Decisions in the Civil Justice System</t>
+  </si>
+  <si>
     <t>Alternative Civil Justice Mechanisms</t>
   </si>
   <si>
+    <t>Access to Alternative Justice Mechanisms</t>
+  </si>
+  <si>
     <t>Effective and Impartial Prosecution and Pre-Trial Proceedings</t>
   </si>
   <si>
+    <t>Trust in the Police and Perceptions of Corruption</t>
+  </si>
+  <si>
+    <t>Serious and Law-Abiding Criminal Investigations</t>
+  </si>
+  <si>
+    <t>Independence of Criminal Investigations</t>
+  </si>
+  <si>
+    <t>Trust in Prosecutors and Perceptions of Corruption</t>
+  </si>
+  <si>
+    <t>Effectiveness of Criminal Prosecution</t>
+  </si>
+  <si>
     <t>Effective and Impartial Criminal Adjudication</t>
+  </si>
+  <si>
+    <t>Trust in Judges and Magistrates and Perceptions of Corruption</t>
+  </si>
+  <si>
+    <t>Efficiency of the Criminal Justice System</t>
+  </si>
+  <si>
+    <t>Effectiveness of Alternative Justice Mechanisms in the Criminal Justice System</t>
+  </si>
+  <si>
+    <t>Respect for Victims' Rights</t>
+  </si>
+  <si>
+    <t>Equal Functioning of the Justice System</t>
+  </si>
+  <si>
+    <t>Respect for the Rights of Victims</t>
+  </si>
+  <si>
+    <t>Equal Access to Justice for All Victims of Crime</t>
+  </si>
+  <si>
+    <t>Service Provision and Support for Victims of Crime</t>
   </si>
   <si>
     <t>Democratic Governance and Fundamental Rights</t>
@@ -1989,435 +2064,12 @@
     <t>positive/Negative</t>
   </si>
   <si>
-    <t xml:space="preserve"> Independence of Local Courts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Independence of Judges</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Independence of Criminal Prosecution </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Free, fair, and secure elections</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transparency and Fairness in Local Elections</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom to Vote without Harassment nor Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom of the Media to Criticize Government Officials</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom of Media to Expose Cases of Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom of Civil Society Organizations to Criticize Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Political Parties' Freedom to Express Opposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom of Expression Against the Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom to Peaceful Protest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government respect for the constitution and political opponents</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Domestic Censorship of Opposition Voices</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blaming Groups of Society for Domestic Problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Attacks on Opposition Parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prosecution of Opposition Party Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Distractions from Important Issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government respect for judicial independence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government Efforts to Limit Courts' Competences</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government Compliance with Court Rulings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influence on Judicial Appointments and Removals</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government respect for independent prosecution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government respect for the electoral system</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discrediting of Electoral System and Supervisory Organs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manipulation of Electoral Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government respect for civil liberties</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Use of Misinformation to Shape Public Opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Denial of Criticisms and Facts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Attacks on Media and Civil Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Civic engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Existence of Complaint Mechanisms About Public Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effectiveness of Complaint Mechanisms Against Local Government Officials</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom to Join Political Organizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom to Present Concerns to Congress or Local Government Officials</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government Collaboration with Civil Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom to Assemble and Draw Attention to an Issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom to Attend Community Meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Including Public Views in Local Government Decisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Participation in Legal Demonstrations and Protest Marches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Participation in Public Consultations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engagement with Civil Society Organizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prohibition of torture and inhuman treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prohibition of slavery and forced labor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom of thought, conscience and religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Freedom of peaceful assembly and association</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right to property</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right to asylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Experiences of Discrimination</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Common Instances of Discrimination Across Protected Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Equality Between Women and Men</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Equality Between Women and Men, by Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Workers' rights [Solidarity rights]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Workers' Freedom to Form Unions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumer Rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Working Conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Environmental Protection </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right to vote and to stand as a candidate at elections</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right of access to documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Information on People's Rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Information in simple Formats</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Information Through Various Formats</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Information Requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right to petition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right of movement and of residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Due process of law</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for Suspects' Rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Absense of Excessive Use of Force by the Police</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Public Defense of Low-Income People</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Equal Access to Fair Trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for the Presumption of Innocence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accountability if Police Violate the Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accountability if Police Request Bribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accountability if Police Accept Bribes from Criminal Organizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investigating Complaints Against the Police</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Awareness of Legal Rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Legal Information and Advice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Legal Aid and Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Affordable Legal Assitance and Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accessible, Appropriate and Timely Dispute Resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Affordable State Dispute Resolution Mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Timely Adjudication by Civil and Commercial Courts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Impartial and Independent Dispute Resolution in the Civil Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fairness in State Dispute Resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Equality and Fair Treatment in the Civil Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Local Courts are Free of Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outcome-Oriented and Effective Dispute Resolution in the Civil Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enforcement of Court Decisions in the Civil Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alternative Civil Justice Mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Alternative Justice Mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effective and Impartial Prosecution and Pre-Trial Proceedings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trust in the Police and Perceptions of Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious and Law-Abiding Criminal Investigations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Independence of Criminal Investigations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trust in Prosecutors and Perceptions of Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effectiveness of Criminal Prosecution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effective and Impartial Criminal Adjudication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trust in Judges and Magistrates and Perceptions of Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Efficiency of the Criminal Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effectiveness of Alternative Justice Mechanisms in the Criminal Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for Victims' Rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Equal Functioning of the Justice System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for the Rights of Victims</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Equal Access to Justice for All Victims of Crime</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Service Provision and Support for Victims of Crime</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for the Due Process of Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trust in Public Defense Attorneys and Perceptions of Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No Use of Excessive Force by the Police</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for the Rights of Persons Deprived of Liberty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respect for the Rights of the People Deprived of Liberty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Safety Perception When Walking in the Neighborhood at Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Safety Perception When Walking in the Neighborhood at Night, by Sex</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Police and Community Safety</t>
   </si>
   <si>
     <t xml:space="preserve"> Witnessing of Violent Situations</t>
   </si>
   <si>
-    <t xml:space="preserve"> Absence of bribery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption in Parliament/Congress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption in the National Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption in the Local Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption of Judges and Magistrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption of Criminal Investigation Prosecutors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption of Public Defense Attorneys</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption of Police Officers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption of Land Registry Officers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption of Car Registration/Driver License Agency Officers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption in Political Parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perception of Corruption in EU's Institutions and Agencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government Services and Bribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Corruption Affects People in the EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Citizens Can Make a Difference in the Fight Against Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effectiveness of Measures Against Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Measures Against Corruption Applied Impartially</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Absence of corrupt procurement practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Political Connections and Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Absence of embezzlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Absence of favoritism</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Absence of corrupt electoral practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Disagreement With Elected Officials Taking Public Funds for Private Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Disagreement With Public Officers Recruited on Account of Family Ties or Friendship Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transparency and access to information</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Information Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to Information Without Using the Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Simple, predictable, and timely administrative proceedings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Regulatory enforcement</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Prevalence of legal problems and prevalence of legal problems of greater self-reported seriousness</t>
   </si>
   <si>
@@ -2532,13 +2184,268 @@
     <t>p_4_09</t>
   </si>
   <si>
-    <t>Legislative oversight</t>
-  </si>
-  <si>
-    <t>Independent oversight</t>
-  </si>
-  <si>
-    <t>Independent prosecution</t>
+    <t>Independence of Criminal Prosecution</t>
+  </si>
+  <si>
+    <t>Transparency and Fairness in Local Elections</t>
+  </si>
+  <si>
+    <t>Freedom to Vote without Harassment nor Pressure</t>
+  </si>
+  <si>
+    <t>Freedom of the Media to Criticize Government Officials</t>
+  </si>
+  <si>
+    <t>Freedom of Media to Expose Cases of Corruption</t>
+  </si>
+  <si>
+    <t>Freedom of Civil Society Organizations to Criticize Government</t>
+  </si>
+  <si>
+    <t>Political Parties' Freedom to Express Opposition</t>
+  </si>
+  <si>
+    <t>Freedom of Expression Against the Government</t>
+  </si>
+  <si>
+    <t>Freedom to Peaceful Protest</t>
+  </si>
+  <si>
+    <t>Domestic Censorship of Opposition Voices</t>
+  </si>
+  <si>
+    <t>Blaming Groups of Society for Domestic Problems</t>
+  </si>
+  <si>
+    <t>Attacks on Opposition Parties</t>
+  </si>
+  <si>
+    <t>Prosecution of Opposition Party Members</t>
+  </si>
+  <si>
+    <t>Distractions from Important Issues</t>
+  </si>
+  <si>
+    <t>Government respect for judicial independence</t>
+  </si>
+  <si>
+    <t>Government Efforts to Limit Courts' Competences</t>
+  </si>
+  <si>
+    <t>Government Compliance with Court Rulings</t>
+  </si>
+  <si>
+    <t>Influence on Judicial Appointments and Removals</t>
+  </si>
+  <si>
+    <t>Government respect for independent oversight</t>
+  </si>
+  <si>
+    <t>Discrediting of Electoral System and Supervisory Organs</t>
+  </si>
+  <si>
+    <t>Manipulation of Electoral Process</t>
+  </si>
+  <si>
+    <t>Use of Misinformation to Shape Public Opinion</t>
+  </si>
+  <si>
+    <t>Denial of Criticisms and Facts</t>
+  </si>
+  <si>
+    <t>Attacks on Media and Civil Society</t>
+  </si>
+  <si>
+    <t>Existence of Complaint Mechanisms About Public Services</t>
+  </si>
+  <si>
+    <t>Effectiveness of Complaint Mechanisms Against Local Government Officials</t>
+  </si>
+  <si>
+    <t>Freedom to Join Political Organizations</t>
+  </si>
+  <si>
+    <t>Freedom to Present Concerns to Congress or Local Government Officials</t>
+  </si>
+  <si>
+    <t>Government Collaboration with Civil Society</t>
+  </si>
+  <si>
+    <t>Freedom to Assemble and Draw Attention to an Issue</t>
+  </si>
+  <si>
+    <t>Freedom to Attend Community Meetings</t>
+  </si>
+  <si>
+    <t>Including Public Views in Local Government Decisions</t>
+  </si>
+  <si>
+    <t>Participation in Legal Demonstrations and Protest Marches</t>
+  </si>
+  <si>
+    <t>Participation in Public Consultations</t>
+  </si>
+  <si>
+    <t>Engagement with Civil Society Organizations</t>
+  </si>
+  <si>
+    <t>Freedom of opinion and expression</t>
+  </si>
+  <si>
+    <t>Equality before the law</t>
+  </si>
+  <si>
+    <t>Experiences of Discrimination</t>
+  </si>
+  <si>
+    <t>Common Instances of Discrimination Across Protected Categories</t>
+  </si>
+  <si>
+    <t>Equality Between Women and Men</t>
+  </si>
+  <si>
+    <t>Equality Between Women and Men, by Sex</t>
+  </si>
+  <si>
+    <t>Workers' Freedom to Form Unions</t>
+  </si>
+  <si>
+    <t>Consumer Rights</t>
+  </si>
+  <si>
+    <t>Working Conditions</t>
+  </si>
+  <si>
+    <t>Environmental Protection</t>
+  </si>
+  <si>
+    <t>Access to Information on People's Rights</t>
+  </si>
+  <si>
+    <t>Access to Information in simple Formats</t>
+  </si>
+  <si>
+    <t>Access to Information Through Various Formats</t>
+  </si>
+  <si>
+    <t>Access to Information Requests</t>
+  </si>
+  <si>
+    <t>Respect for Suspects' Rights</t>
+  </si>
+  <si>
+    <t>Absense of Excessive Use of Force by the Police</t>
+  </si>
+  <si>
+    <t>Public Defense of Low-Income People</t>
+  </si>
+  <si>
+    <t>Equal Access to Fair Trial</t>
+  </si>
+  <si>
+    <t>Respect for the Presumption of Innocence</t>
+  </si>
+  <si>
+    <t>Accountability if Police Violate the Law</t>
+  </si>
+  <si>
+    <t>Accountability if Police Request Bribes</t>
+  </si>
+  <si>
+    <t>Accountability if Police Accept Bribes from Criminal Organizations</t>
+  </si>
+  <si>
+    <t>Investigating Complaints Against the Police</t>
+  </si>
+  <si>
+    <t>Respect for the Due Process of Law</t>
+  </si>
+  <si>
+    <t>Trust in Public Defense Attorneys and Perceptions of Corruption</t>
+  </si>
+  <si>
+    <t>No Use of Excessive Force by the Police</t>
+  </si>
+  <si>
+    <t>Respect for the Rights of Persons Deprived of Liberty</t>
+  </si>
+  <si>
+    <t>Respect for the Rights of the People Deprived of Liberty</t>
+  </si>
+  <si>
+    <t>Safety Perception When Walking in the Neighborhood at Night</t>
+  </si>
+  <si>
+    <t>Safety Perception When Walking in the Neighborhood at Night, by Sex</t>
+  </si>
+  <si>
+    <t>Police and Community Safety</t>
+  </si>
+  <si>
+    <t>Witnessing of Violent Situations</t>
+  </si>
+  <si>
+    <t>Perception of Corruption in Parliament/Congress</t>
+  </si>
+  <si>
+    <t>Perception of Corruption in the National Government</t>
+  </si>
+  <si>
+    <t>Perception of Corruption in the Local Government</t>
+  </si>
+  <si>
+    <t>Perception of Corruption of Judges and Magistrates</t>
+  </si>
+  <si>
+    <t>Perception of Corruption of Criminal Investigation Prosecutors</t>
+  </si>
+  <si>
+    <t>Perception of Corruption of Public Defense Attorneys</t>
+  </si>
+  <si>
+    <t>Perception of Corruption of Police Officers</t>
+  </si>
+  <si>
+    <t>Perception of Corruption of Land Registry Officers</t>
+  </si>
+  <si>
+    <t>Perception of Corruption of Car Registration/Driver License Agency Officers</t>
+  </si>
+  <si>
+    <t>Perception of Corruption in Political Parties</t>
+  </si>
+  <si>
+    <t>Perception of Corruption in EU's Institutions and Agencies</t>
+  </si>
+  <si>
+    <t>Government Services and Bribes</t>
+  </si>
+  <si>
+    <t>Corruption Affects People in the EU</t>
+  </si>
+  <si>
+    <t>Citizens Can Make a Difference in the Fight Against Corruption</t>
+  </si>
+  <si>
+    <t>Effectiveness of Measures Against Corruption</t>
+  </si>
+  <si>
+    <t>Measures Against Corruption Applied Impartially</t>
+  </si>
+  <si>
+    <t>Political Connections and Business</t>
+  </si>
+  <si>
+    <t>Disagreement With Elected Officials Taking Public Funds for Private Use</t>
+  </si>
+  <si>
+    <t>Disagreement With Public Officers Recruited on Account of Family Ties or Friendship Networks</t>
+  </si>
+  <si>
+    <t>Access to Information Online</t>
+  </si>
+  <si>
+    <t>Access to Information Without Using the Internet</t>
   </si>
 </sst>
 </file>
@@ -3254,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B889B-2B8F-47B3-B684-D177E81CA62D}">
   <dimension ref="A1:R1048516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3333,18 +3240,18 @@
         <v>12</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>810</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>19</v>
@@ -3360,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>235</v>
@@ -3372,7 +3279,7 @@
         <v>235</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>829</v>
+        <v>287</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>16</v>
@@ -3390,18 +3297,18 @@
         <v>247</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>19</v>
@@ -3417,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>235</v>
@@ -3429,7 +3336,7 @@
         <v>235</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>16</v>
@@ -3447,23 +3354,23 @@
         <v>247</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="15">
         <f t="shared" ref="E4:E67" si="0" xml:space="preserve"> ROW()-1</f>
         <v>3</v>
       </c>
@@ -3486,7 +3393,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>648</v>
+        <v>262</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>44</v>
@@ -3504,18 +3411,18 @@
         <v>248</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>20</v>
@@ -3543,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>649</v>
+        <v>263</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>45</v>
@@ -3561,18 +3468,18 @@
         <v>248</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>19</v>
@@ -3588,10 +3495,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>235</v>
@@ -3600,7 +3507,7 @@
         <v>235</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>830</v>
+        <v>289</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>16</v>
@@ -3618,18 +3525,18 @@
         <v>247</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>19</v>
@@ -3645,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>235</v>
@@ -3657,7 +3564,7 @@
         <v>235</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>831</v>
+        <v>292</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>16</v>
@@ -3675,23 +3582,23 @@
         <v>247</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3714,10 +3621,10 @@
         <v>70</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>650</v>
+        <v>713</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>17</v>
@@ -3732,18 +3639,18 @@
         <v>248</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>19</v>
@@ -3759,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>235</v>
@@ -3770,8 +3677,8 @@
       <c r="K9" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>651</v>
+      <c r="L9" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>16</v>
@@ -3789,49 +3696,49 @@
         <v>248</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
-        <f t="shared" si="0"/>
+      <c r="E10" s="15">
+        <f xml:space="preserve"> ROW()-1</f>
         <v>9</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G10" s="24">
         <v>1</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>652</v>
+        <v>714</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>17</v>
@@ -3846,49 +3753,49 @@
         <v>248</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="G11" s="24">
         <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>653</v>
+        <v>715</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>17</v>
@@ -3903,18 +3810,18 @@
         <v>248</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>19</v>
@@ -3930,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>235</v>
@@ -3942,7 +3849,7 @@
         <v>235</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>16</v>
@@ -3960,18 +3867,18 @@
         <v>247</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>20</v>
@@ -3981,28 +3888,28 @@
         <v>12</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>17</v>
@@ -4017,18 +3924,18 @@
         <v>248</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>20</v>
@@ -4038,28 +3945,28 @@
         <v>13</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>17</v>
@@ -4074,18 +3981,18 @@
         <v>248</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>20</v>
@@ -4095,28 +4002,28 @@
         <v>14</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>17</v>
@@ -4131,18 +4038,18 @@
         <v>248</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>20</v>
@@ -4152,28 +4059,28 @@
         <v>15</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>657</v>
+        <v>719</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>17</v>
@@ -4188,18 +4095,18 @@
         <v>248</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>20</v>
@@ -4209,28 +4116,28 @@
         <v>16</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="G17" s="24">
         <v>1</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>658</v>
+        <v>720</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>17</v>
@@ -4245,18 +4152,18 @@
         <v>248</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>20</v>
@@ -4266,28 +4173,28 @@
         <v>17</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>659</v>
+        <v>721</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>17</v>
@@ -4302,18 +4209,18 @@
         <v>248</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>19</v>
@@ -4329,10 +4236,10 @@
         <v>2</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>235</v>
@@ -4341,7 +4248,7 @@
         <v>235</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>660</v>
+        <v>354</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>16</v>
@@ -4359,18 +4266,18 @@
         <v>247</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>20</v>
@@ -4380,54 +4287,54 @@
         <v>19</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="G20" s="24">
         <v>2</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>20</v>
@@ -4437,54 +4344,54 @@
         <v>20</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="G21" s="24">
         <v>2</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="N21" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>20</v>
@@ -4494,54 +4401,54 @@
         <v>21</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G22" s="24">
         <v>2</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>663</v>
+        <v>724</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P22" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>20</v>
@@ -4551,54 +4458,54 @@
         <v>22</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="G23" s="24">
         <v>2</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>20</v>
@@ -4608,51 +4515,51 @@
         <v>23</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="G24" s="24">
         <v>2</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>665</v>
+        <v>726</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
@@ -4669,10 +4576,10 @@
         <v>2</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>235</v>
@@ -4681,7 +4588,7 @@
         <v>235</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>666</v>
+        <v>727</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>16</v>
@@ -4699,15 +4606,15 @@
         <v>247</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
@@ -4717,51 +4624,51 @@
         <v>25</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>667</v>
+        <v>728</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -4771,51 +4678,51 @@
         <v>26</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>668</v>
+        <v>729</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
@@ -4825,54 +4732,54 @@
         <v>27</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>19</v>
@@ -4888,10 +4795,10 @@
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>235</v>
@@ -4900,7 +4807,7 @@
         <v>235</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>346</v>
+        <v>731</v>
       </c>
       <c r="M29" s="19" t="s">
         <v>16</v>
@@ -4918,18 +4825,18 @@
         <v>247</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
@@ -4945,10 +4852,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>235</v>
@@ -4957,7 +4864,7 @@
         <v>235</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>670</v>
+        <v>372</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>16</v>
@@ -4975,18 +4882,18 @@
         <v>247</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>19</v>
@@ -5002,10 +4909,10 @@
         <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>235</v>
@@ -5014,7 +4921,7 @@
         <v>235</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>671</v>
+        <v>373</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>16</v>
@@ -5032,18 +4939,18 @@
         <v>247</v>
       </c>
       <c r="R31" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>20</v>
@@ -5053,54 +4960,54 @@
         <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>672</v>
+        <v>732</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
@@ -5110,54 +5017,54 @@
         <v>32</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>673</v>
+        <v>733</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P33" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R33" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>19</v>
@@ -5173,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>235</v>
@@ -5185,7 +5092,7 @@
         <v>235</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>16</v>
@@ -5203,18 +5110,18 @@
         <v>247</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>20</v>
@@ -5224,54 +5131,54 @@
         <v>34</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="G35" s="24">
         <v>2</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>675</v>
+        <v>734</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="N35" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R35" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>20</v>
@@ -5281,54 +5188,54 @@
         <v>35</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="G36" s="24">
         <v>2</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="J36" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P36" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>20</v>
@@ -5338,54 +5245,54 @@
         <v>36</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="G37" s="24">
         <v>2</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>232</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P37" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>19</v>
@@ -5401,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="J38" s="24" t="s">
         <v>235</v>
@@ -5413,7 +5320,7 @@
         <v>235</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>678</v>
+        <v>409</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>16</v>
@@ -5431,18 +5338,18 @@
         <v>247</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>20</v>
@@ -5452,28 +5359,28 @@
         <v>38</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="G39" s="24">
         <v>3</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="J39" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>17</v>
@@ -5488,18 +5395,18 @@
         <v>248</v>
       </c>
       <c r="R39" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>20</v>
@@ -5509,28 +5416,28 @@
         <v>39</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="G40" s="24">
         <v>3</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="J40" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>17</v>
@@ -5545,18 +5452,18 @@
         <v>248</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>20</v>
@@ -5566,28 +5473,28 @@
         <v>40</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="G41" s="24">
         <v>3</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="J41" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K41" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="M41" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>17</v>
@@ -5602,18 +5509,18 @@
         <v>248</v>
       </c>
       <c r="R41" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>20</v>
@@ -5623,54 +5530,54 @@
         <v>41</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="G42" s="24">
         <v>3</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="I42" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="M42" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="J42" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>375</v>
-      </c>
       <c r="N42" s="15" t="s">
         <v>17</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P42" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>20</v>
@@ -5680,28 +5587,28 @@
         <v>42</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="G43" s="24">
         <v>3</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="J43" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>17</v>
@@ -5716,18 +5623,18 @@
         <v>248</v>
       </c>
       <c r="R43" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>20</v>
@@ -5737,28 +5644,28 @@
         <v>43</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="G44" s="24">
         <v>3</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="J44" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>684</v>
+        <v>742</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>17</v>
@@ -5773,18 +5680,18 @@
         <v>248</v>
       </c>
       <c r="R44" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>20</v>
@@ -5794,28 +5701,28 @@
         <v>44</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="G45" s="24">
         <v>3</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="I45" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="M45" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="J45" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="N45" s="15" t="s">
         <v>17</v>
@@ -5830,18 +5737,18 @@
         <v>248</v>
       </c>
       <c r="R45" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>20</v>
@@ -5851,28 +5758,28 @@
         <v>45</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="G46" s="24">
         <v>3</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="J46" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>686</v>
+        <v>744</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>17</v>
@@ -5887,18 +5794,18 @@
         <v>248</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>20</v>
@@ -5908,28 +5815,28 @@
         <v>46</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="G47" s="24">
         <v>3</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="J47" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>17</v>
@@ -5944,18 +5851,18 @@
         <v>248</v>
       </c>
       <c r="R47" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>20</v>
@@ -5965,28 +5872,28 @@
         <v>47</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="G48" s="24">
         <v>3</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="J48" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>17</v>
@@ -6001,18 +5908,18 @@
         <v>248</v>
       </c>
       <c r="R48" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>20</v>
@@ -6022,28 +5929,28 @@
         <v>48</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="G49" s="24">
         <v>3</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="J49" s="24" t="s">
         <v>235</v>
       </c>
       <c r="K49" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="M49" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="N49" s="15" t="s">
         <v>17</v>
@@ -6058,18 +5965,18 @@
         <v>248</v>
       </c>
       <c r="R49" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>19</v>
@@ -6085,10 +5992,10 @@
         <v>4</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>820</v>
+        <v>704</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>820</v>
+        <v>704</v>
       </c>
       <c r="J50" s="24" t="s">
         <v>235</v>
@@ -6097,7 +6004,7 @@
         <v>235</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>690</v>
+        <v>448</v>
       </c>
       <c r="M50" s="19" t="s">
         <v>16</v>
@@ -6115,18 +6022,18 @@
         <v>247</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>19</v>
@@ -6142,10 +6049,10 @@
         <v>4</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>821</v>
+        <v>705</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>821</v>
+        <v>705</v>
       </c>
       <c r="J51" s="24" t="s">
         <v>235</v>
@@ -6154,7 +6061,7 @@
         <v>235</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="M51" s="19" t="s">
         <v>16</v>
@@ -6172,18 +6079,18 @@
         <v>247</v>
       </c>
       <c r="R51" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -6199,10 +6106,10 @@
         <v>4</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>822</v>
+        <v>706</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>822</v>
+        <v>706</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>235</v>
@@ -6211,7 +6118,7 @@
         <v>235</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>16</v>
@@ -6229,18 +6136,18 @@
         <v>247</v>
       </c>
       <c r="R52" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
@@ -6256,10 +6163,10 @@
         <v>4</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>823</v>
+        <v>707</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>823</v>
+        <v>707</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>235</v>
@@ -6268,7 +6175,7 @@
         <v>235</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>693</v>
+        <v>451</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>16</v>
@@ -6286,18 +6193,18 @@
         <v>247</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>20</v>
@@ -6307,28 +6214,28 @@
         <v>53</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K54" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="M54" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>17</v>
@@ -6343,18 +6250,18 @@
         <v>248</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>20</v>
@@ -6364,28 +6271,28 @@
         <v>54</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="G55" s="1">
         <v>4</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="I55" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="M55" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="N55" s="15" t="s">
         <v>17</v>
@@ -6400,18 +6307,18 @@
         <v>248</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
@@ -6421,28 +6328,28 @@
         <v>55</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G56" s="1">
         <v>4</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>659</v>
+        <v>721</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>17</v>
@@ -6457,18 +6364,18 @@
         <v>248</v>
       </c>
       <c r="R56" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
@@ -6478,28 +6385,28 @@
         <v>56</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="G57" s="1">
         <v>4</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="N57" s="15" t="s">
         <v>17</v>
@@ -6514,18 +6421,18 @@
         <v>248</v>
       </c>
       <c r="R57" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
@@ -6541,10 +6448,10 @@
         <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>824</v>
+        <v>708</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>824</v>
+        <v>708</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>235</v>
@@ -6553,7 +6460,7 @@
         <v>235</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>427</v>
+        <v>748</v>
       </c>
       <c r="M58" s="19" t="s">
         <v>16</v>
@@ -6571,18 +6478,18 @@
         <v>247</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>20</v>
@@ -6592,28 +6499,28 @@
         <v>58</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="G59" s="1">
         <v>4</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="N59" s="19" t="s">
         <v>17</v>
@@ -6628,18 +6535,18 @@
         <v>248</v>
       </c>
       <c r="R59" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
@@ -6649,28 +6556,28 @@
         <v>59</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="G60" s="1">
         <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="N60" s="19" t="s">
         <v>17</v>
@@ -6685,18 +6592,18 @@
         <v>248</v>
       </c>
       <c r="R60" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>20</v>
@@ -6706,28 +6613,28 @@
         <v>60</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="G61" s="1">
         <v>4</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="N61" s="19" t="s">
         <v>17</v>
@@ -6742,18 +6649,18 @@
         <v>248</v>
       </c>
       <c r="R61" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>20</v>
@@ -6763,28 +6670,28 @@
         <v>61</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G62" s="1">
         <v>4</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>657</v>
+        <v>719</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="N62" s="19" t="s">
         <v>17</v>
@@ -6799,18 +6706,18 @@
         <v>248</v>
       </c>
       <c r="R62" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>20</v>
@@ -6820,28 +6727,28 @@
         <v>62</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="G63" s="1">
         <v>4</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>658</v>
+        <v>720</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="N63" s="19" t="s">
         <v>17</v>
@@ -6856,18 +6763,18 @@
         <v>248</v>
       </c>
       <c r="R63" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
@@ -6883,10 +6790,10 @@
         <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>825</v>
+        <v>709</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>825</v>
+        <v>709</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>235</v>
@@ -6895,7 +6802,7 @@
         <v>235</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>16</v>
@@ -6913,18 +6820,18 @@
         <v>247</v>
       </c>
       <c r="R64" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
@@ -6940,10 +6847,10 @@
         <v>4</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>826</v>
+        <v>710</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>826</v>
+        <v>710</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>235</v>
@@ -6952,7 +6859,7 @@
         <v>235</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>16</v>
@@ -6970,18 +6877,18 @@
         <v>247</v>
       </c>
       <c r="R65" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
@@ -6997,10 +6904,10 @@
         <v>4</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>827</v>
+        <v>711</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>827</v>
+        <v>711</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>235</v>
@@ -7009,7 +6916,7 @@
         <v>235</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>465</v>
+        <v>749</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>16</v>
@@ -7027,18 +6934,18 @@
         <v>247</v>
       </c>
       <c r="R66" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
@@ -7048,31 +6955,31 @@
         <v>66</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="G67" s="1">
         <v>4</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>808</v>
+        <v>692</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>812</v>
+        <v>696</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>696</v>
+        <v>750</v>
       </c>
       <c r="M67" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O67" s="19" t="s">
         <v>18</v>
@@ -7081,21 +6988,21 @@
         <v>129</v>
       </c>
       <c r="Q67" s="19" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="R67" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>20</v>
@@ -7105,54 +7012,54 @@
         <v>67</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="G68" s="1">
         <v>4</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>812</v>
+        <v>696</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>697</v>
+        <v>751</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O68" s="19" t="s">
         <v>18</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="Q68" s="19" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="R68" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>20</v>
@@ -7162,28 +7069,28 @@
         <v>68</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="G69" s="1">
         <v>4</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>698</v>
+        <v>752</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="N69" s="19" t="s">
         <v>17</v>
@@ -7198,18 +7105,18 @@
         <v>26</v>
       </c>
       <c r="R69" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>20</v>
@@ -7219,54 +7126,54 @@
         <v>69</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="G70" s="1">
         <v>4</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>699</v>
+        <v>753</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="N70" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="P70" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q70" s="19" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="R70" s="15" t="s">
-        <v>809</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>19</v>
@@ -7282,10 +7189,10 @@
         <v>4</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>828</v>
+        <v>712</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>828</v>
+        <v>712</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>235</v>
@@ -7294,7 +7201,7 @@
         <v>235</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>700</v>
+        <v>491</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>16</v>
@@ -7312,18 +7219,18 @@
         <v>247</v>
       </c>
       <c r="R71" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>20</v>
@@ -7333,28 +7240,28 @@
         <v>71</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="G72" s="1">
         <v>4</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="N72" s="19" t="s">
         <v>17</v>
@@ -7369,18 +7276,18 @@
         <v>248</v>
       </c>
       <c r="R72" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>20</v>
@@ -7390,28 +7297,28 @@
         <v>72</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="G73" s="1">
         <v>4</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="N73" s="19" t="s">
         <v>17</v>
@@ -7426,18 +7333,18 @@
         <v>248</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>20</v>
@@ -7447,28 +7354,28 @@
         <v>73</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="G74" s="1">
         <v>4</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>703</v>
+        <v>756</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="N74" s="19" t="s">
         <v>17</v>
@@ -7483,18 +7390,18 @@
         <v>248</v>
       </c>
       <c r="R74" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>20</v>
@@ -7504,28 +7411,28 @@
         <v>74</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="G75" s="1">
         <v>4</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>704</v>
+        <v>757</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="N75" s="19" t="s">
         <v>17</v>
@@ -7540,18 +7447,18 @@
         <v>248</v>
       </c>
       <c r="R75" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
@@ -7567,10 +7474,10 @@
         <v>4</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>235</v>
@@ -7579,7 +7486,7 @@
         <v>235</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>705</v>
+        <v>493</v>
       </c>
       <c r="M76" s="19" t="s">
         <v>16</v>
@@ -7597,18 +7504,18 @@
         <v>247</v>
       </c>
       <c r="R76" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>20</v>
@@ -7618,28 +7525,28 @@
         <v>76</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="G77" s="1">
         <v>4</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>653</v>
+        <v>715</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="N77" s="19" t="s">
         <v>17</v>
@@ -7654,18 +7561,18 @@
         <v>248</v>
       </c>
       <c r="R77" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>19</v>
@@ -7681,10 +7588,10 @@
         <v>4</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>235</v>
@@ -7693,7 +7600,7 @@
         <v>235</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>16</v>
@@ -7711,18 +7618,18 @@
         <v>247</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
@@ -7732,28 +7639,28 @@
         <v>78</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="G79" s="1">
         <v>4</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>235</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>707</v>
+        <v>758</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="N79" s="19" t="s">
         <v>17</v>
@@ -7768,18 +7675,18 @@
         <v>248</v>
       </c>
       <c r="R79" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
@@ -7789,25 +7696,25 @@
         <v>79</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="G80" s="1">
         <v>4</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="N80" s="19" t="s">
         <v>17</v>
@@ -7822,18 +7729,18 @@
         <v>248</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
@@ -7843,28 +7750,28 @@
         <v>80</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="G81" s="1">
         <v>4</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>709</v>
+        <v>760</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="N81" s="19" t="s">
         <v>17</v>
@@ -7876,21 +7783,21 @@
         <v>25</v>
       </c>
       <c r="Q81" s="15" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
@@ -7900,54 +7807,54 @@
         <v>81</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="G82" s="1">
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>804</v>
+        <v>688</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="N82" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O82" s="19" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P82" s="19" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="Q82" s="15" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>19</v>
@@ -7963,10 +7870,10 @@
         <v>4</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>235</v>
@@ -7975,7 +7882,7 @@
         <v>235</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="M83" s="19" t="s">
         <v>16</v>
@@ -7993,18 +7900,18 @@
         <v>247</v>
       </c>
       <c r="R83" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>20</v>
@@ -8014,54 +7921,54 @@
         <v>83</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="G84" s="1">
         <v>4</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="I84" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="M84" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="L84" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="M84" s="19" t="s">
-        <v>375</v>
-      </c>
       <c r="N84" s="15" t="s">
         <v>17</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P84" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q84" s="19" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>19</v>
@@ -8077,10 +7984,10 @@
         <v>4</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>235</v>
@@ -8089,7 +7996,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="M85" s="19" t="s">
         <v>16</v>
@@ -8107,15 +8014,15 @@
         <v>247</v>
       </c>
       <c r="R85" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>99</v>
@@ -8134,10 +8041,10 @@
         <v>4</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>235</v>
@@ -8146,7 +8053,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>713</v>
+        <v>99</v>
       </c>
       <c r="M86" s="19" t="s">
         <v>16</v>
@@ -8164,15 +8071,15 @@
         <v>247</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>99</v>
@@ -8203,7 +8110,7 @@
         <v>70</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="M87" s="19" t="s">
         <v>111</v>
@@ -8221,15 +8128,15 @@
         <v>248</v>
       </c>
       <c r="R87" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>99</v>
@@ -8260,7 +8167,7 @@
         <v>70</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>112</v>
@@ -8278,15 +8185,15 @@
         <v>248</v>
       </c>
       <c r="R88" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>99</v>
@@ -8317,7 +8224,7 @@
         <v>70</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="M89" s="19" t="s">
         <v>113</v>
@@ -8335,15 +8242,15 @@
         <v>248</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>99</v>
@@ -8374,7 +8281,7 @@
         <v>80</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>114</v>
@@ -8392,15 +8299,15 @@
         <v>248</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>99</v>
@@ -8431,7 +8338,7 @@
         <v>80</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="M91" s="19" t="s">
         <v>115</v>
@@ -8449,15 +8356,15 @@
         <v>248</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>99</v>
@@ -8470,16 +8377,16 @@
         <v>91</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="G92" s="1">
         <v>4</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>235</v>
@@ -8488,10 +8395,10 @@
         <v>70</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="N92" s="19" t="s">
         <v>17</v>
@@ -8506,15 +8413,15 @@
         <v>248</v>
       </c>
       <c r="R92" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>99</v>
@@ -8527,16 +8434,16 @@
         <v>92</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="G93" s="1">
         <v>4</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>235</v>
@@ -8545,10 +8452,10 @@
         <v>70</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="N93" s="19" t="s">
         <v>17</v>
@@ -8563,15 +8470,15 @@
         <v>248</v>
       </c>
       <c r="R93" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>99</v>
@@ -8584,16 +8491,16 @@
         <v>93</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="G94" s="1">
         <v>4</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>235</v>
@@ -8602,10 +8509,10 @@
         <v>70</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="N94" s="19" t="s">
         <v>17</v>
@@ -8620,15 +8527,15 @@
         <v>248</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>99</v>
@@ -8641,16 +8548,16 @@
         <v>94</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="G95" s="1">
         <v>4</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>235</v>
@@ -8659,10 +8566,10 @@
         <v>70</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="N95" s="19" t="s">
         <v>17</v>
@@ -8677,7 +8584,7 @@
         <v>248</v>
       </c>
       <c r="R95" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8704,10 +8611,10 @@
         <v>5</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="J96" s="24" t="s">
         <v>235</v>
@@ -8734,7 +8641,7 @@
         <v>247</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8773,7 +8680,7 @@
         <v>21</v>
       </c>
       <c r="L97" s="20" t="s">
-        <v>723</v>
+        <v>251</v>
       </c>
       <c r="M97" s="20" t="s">
         <v>24</v>
@@ -8791,7 +8698,7 @@
         <v>248</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8830,7 +8737,7 @@
         <v>21</v>
       </c>
       <c r="L98" s="20" t="s">
-        <v>724</v>
+        <v>252</v>
       </c>
       <c r="M98" s="20" t="s">
         <v>29</v>
@@ -8848,7 +8755,7 @@
         <v>248</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8859,7 +8766,7 @@
         <v>15</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>19</v>
@@ -8875,10 +8782,10 @@
         <v>5</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="J99" s="24" t="s">
         <v>235</v>
@@ -8887,7 +8794,7 @@
         <v>235</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>725</v>
+        <v>253</v>
       </c>
       <c r="M99" s="19" t="s">
         <v>16</v>
@@ -8905,7 +8812,7 @@
         <v>247</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8916,7 +8823,7 @@
         <v>15</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>20</v>
@@ -8944,7 +8851,7 @@
         <v>21</v>
       </c>
       <c r="L100" s="20" t="s">
-        <v>726</v>
+        <v>254</v>
       </c>
       <c r="M100" s="20" t="s">
         <v>32</v>
@@ -8962,7 +8869,7 @@
         <v>248</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8973,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>19</v>
@@ -8989,10 +8896,10 @@
         <v>5</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="J101" s="24" t="s">
         <v>235</v>
@@ -9001,7 +8908,7 @@
         <v>235</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>727</v>
+        <v>255</v>
       </c>
       <c r="M101" s="19" t="s">
         <v>16</v>
@@ -9019,7 +8926,7 @@
         <v>247</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9030,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>20</v>
@@ -9058,7 +8965,7 @@
         <v>21</v>
       </c>
       <c r="L102" s="20" t="s">
-        <v>728</v>
+        <v>256</v>
       </c>
       <c r="M102" s="20" t="s">
         <v>37</v>
@@ -9076,7 +8983,7 @@
         <v>248</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9087,7 +8994,7 @@
         <v>15</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>20</v>
@@ -9115,7 +9022,7 @@
         <v>21</v>
       </c>
       <c r="L103" s="20" t="s">
-        <v>729</v>
+        <v>257</v>
       </c>
       <c r="M103" s="20" t="s">
         <v>38</v>
@@ -9133,7 +9040,7 @@
         <v>248</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9144,7 +9051,7 @@
         <v>15</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>19</v>
@@ -9160,10 +9067,10 @@
         <v>5</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="J104" s="24" t="s">
         <v>235</v>
@@ -9172,7 +9079,7 @@
         <v>235</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>730</v>
+        <v>258</v>
       </c>
       <c r="M104" s="19" t="s">
         <v>16</v>
@@ -9190,7 +9097,7 @@
         <v>94</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9201,7 +9108,7 @@
         <v>15</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>20</v>
@@ -9229,7 +9136,7 @@
         <v>21</v>
       </c>
       <c r="L105" s="20" t="s">
-        <v>731</v>
+        <v>259</v>
       </c>
       <c r="M105" s="20" t="s">
         <v>41</v>
@@ -9247,7 +9154,7 @@
         <v>26</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9258,7 +9165,7 @@
         <v>15</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>20</v>
@@ -9286,7 +9193,7 @@
         <v>21</v>
       </c>
       <c r="L106" s="20" t="s">
-        <v>732</v>
+        <v>260</v>
       </c>
       <c r="M106" s="20" t="s">
         <v>42</v>
@@ -9304,7 +9211,7 @@
         <v>26</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9315,7 +9222,7 @@
         <v>15</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>20</v>
@@ -9343,7 +9250,7 @@
         <v>21</v>
       </c>
       <c r="L107" s="20" t="s">
-        <v>733</v>
+        <v>261</v>
       </c>
       <c r="M107" s="19" t="s">
         <v>43</v>
@@ -9361,7 +9268,7 @@
         <v>26</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9372,7 +9279,7 @@
         <v>15</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>20</v>
@@ -9400,7 +9307,7 @@
         <v>21</v>
       </c>
       <c r="L108" s="20" t="s">
-        <v>648</v>
+        <v>262</v>
       </c>
       <c r="M108" s="19" t="s">
         <v>44</v>
@@ -9418,7 +9325,7 @@
         <v>26</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9429,7 +9336,7 @@
         <v>15</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>20</v>
@@ -9457,7 +9364,7 @@
         <v>21</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>649</v>
+        <v>263</v>
       </c>
       <c r="M109" s="19" t="s">
         <v>45</v>
@@ -9475,7 +9382,7 @@
         <v>26</v>
       </c>
       <c r="R109" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9486,7 +9393,7 @@
         <v>15</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>19</v>
@@ -9502,10 +9409,10 @@
         <v>5</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="J110" s="24" t="s">
         <v>235</v>
@@ -9514,7 +9421,7 @@
         <v>235</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>734</v>
+        <v>264</v>
       </c>
       <c r="M110" s="19" t="s">
         <v>16</v>
@@ -9532,7 +9439,7 @@
         <v>247</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9543,7 +9450,7 @@
         <v>15</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>20</v>
@@ -9571,7 +9478,7 @@
         <v>21</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>735</v>
+        <v>265</v>
       </c>
       <c r="M111" s="20" t="s">
         <v>56</v>
@@ -9589,7 +9496,7 @@
         <v>248</v>
       </c>
       <c r="R111" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9600,7 +9507,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>19</v>
@@ -9616,10 +9523,10 @@
         <v>5</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="I112" s="24" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="J112" s="24" t="s">
         <v>235</v>
@@ -9628,7 +9535,7 @@
         <v>235</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>736</v>
+        <v>266</v>
       </c>
       <c r="M112" s="19" t="s">
         <v>16</v>
@@ -9646,7 +9553,7 @@
         <v>247</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9657,7 +9564,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>20</v>
@@ -9685,7 +9592,7 @@
         <v>21</v>
       </c>
       <c r="L113" s="20" t="s">
-        <v>737</v>
+        <v>267</v>
       </c>
       <c r="M113" s="20" t="s">
         <v>57</v>
@@ -9703,7 +9610,7 @@
         <v>248</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9717,14 +9624,14 @@
         <v>139</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E114" s="30">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="G114" s="30">
         <v>5</v>
@@ -9736,16 +9643,16 @@
         <v>144</v>
       </c>
       <c r="J114" s="30" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K114" s="30" t="s">
         <v>140</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>233</v>
@@ -9760,7 +9667,7 @@
         <v>248</v>
       </c>
       <c r="R114" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9774,7 +9681,7 @@
         <v>139</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E115" s="30">
         <f t="shared" si="1"/>
@@ -9790,19 +9697,19 @@
         <v>222</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>815</v>
+        <v>699</v>
       </c>
       <c r="J115" s="30" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K115" s="30" t="s">
         <v>140</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>233</v>
@@ -9811,13 +9718,13 @@
         <v>231</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>816</v>
+        <v>700</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>248</v>
       </c>
       <c r="R115" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9831,7 +9738,7 @@
         <v>139</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E116" s="30">
         <f t="shared" si="1"/>
@@ -9856,10 +9763,10 @@
         <v>150</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N116" s="30" t="s">
         <v>17</v>
@@ -9874,7 +9781,7 @@
         <v>248</v>
       </c>
       <c r="R116" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9888,7 +9795,7 @@
         <v>139</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E117" s="30">
         <f t="shared" si="1"/>
@@ -9913,10 +9820,10 @@
         <v>150</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N117" s="30" t="s">
         <v>17</v>
@@ -9931,7 +9838,7 @@
         <v>248</v>
       </c>
       <c r="R117" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9945,7 +9852,7 @@
         <v>139</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E118" s="30">
         <f t="shared" si="1"/>
@@ -9970,10 +9877,10 @@
         <v>159</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N118" s="30" t="s">
         <v>17</v>
@@ -9988,7 +9895,7 @@
         <v>248</v>
       </c>
       <c r="R118" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10002,7 +9909,7 @@
         <v>139</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E119" s="30">
         <f t="shared" si="1"/>
@@ -10021,16 +9928,16 @@
         <v>160</v>
       </c>
       <c r="J119" s="30" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K119" s="30" t="s">
         <v>161</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N119" s="30" t="s">
         <v>17</v>
@@ -10045,7 +9952,7 @@
         <v>248</v>
       </c>
       <c r="R119" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10059,7 +9966,7 @@
         <v>139</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E120" s="30">
         <f t="shared" si="1"/>
@@ -10075,19 +9982,19 @@
         <v>226</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>817</v>
+        <v>701</v>
       </c>
       <c r="J120" s="30" t="s">
-        <v>818</v>
+        <v>702</v>
       </c>
       <c r="K120" s="30" t="s">
         <v>168</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N120" s="30" t="s">
         <v>17</v>
@@ -10099,10 +10006,10 @@
         <v>169</v>
       </c>
       <c r="Q120" s="30" t="s">
-        <v>819</v>
+        <v>703</v>
       </c>
       <c r="R120" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10116,7 +10023,7 @@
         <v>139</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E121" s="30">
         <f t="shared" si="1"/>
@@ -10141,10 +10048,10 @@
         <v>168</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N121" s="30" t="s">
         <v>17</v>
@@ -10159,7 +10066,7 @@
         <v>248</v>
       </c>
       <c r="R121" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10173,7 +10080,7 @@
         <v>139</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E122" s="30">
         <f t="shared" si="1"/>
@@ -10192,16 +10099,16 @@
         <v>176</v>
       </c>
       <c r="J122" s="30" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K122" s="30" t="s">
         <v>168</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N122" s="30" t="s">
         <v>17</v>
@@ -10216,7 +10123,7 @@
         <v>248</v>
       </c>
       <c r="R122" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10230,7 +10137,7 @@
         <v>139</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E123" s="30">
         <f t="shared" si="1"/>
@@ -10255,10 +10162,10 @@
         <v>168</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N123" s="30" t="s">
         <v>17</v>
@@ -10273,7 +10180,7 @@
         <v>248</v>
       </c>
       <c r="R123" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10287,7 +10194,7 @@
         <v>139</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E124" s="30">
         <f t="shared" si="1"/>
@@ -10312,10 +10219,10 @@
         <v>168</v>
       </c>
       <c r="L124" s="36" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="M124" s="37" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>17</v>
@@ -10330,7 +10237,7 @@
         <v>248</v>
       </c>
       <c r="R124" s="30" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10357,10 +10264,10 @@
         <v>6</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="I125" s="24" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="J125" s="24" t="s">
         <v>235</v>
@@ -10369,7 +10276,7 @@
         <v>235</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>738</v>
+        <v>268</v>
       </c>
       <c r="M125" s="19" t="s">
         <v>16</v>
@@ -10387,7 +10294,7 @@
         <v>247</v>
       </c>
       <c r="R125" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10405,7 +10312,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="G126" s="24">
         <v>6</v>
@@ -10420,16 +10327,16 @@
         <v>239</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>739</v>
+        <v>269</v>
       </c>
       <c r="M126" s="19" t="s">
         <v>65</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="O126" s="19" t="s">
         <v>18</v>
@@ -10438,10 +10345,10 @@
         <v>68</v>
       </c>
       <c r="Q126" s="15" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="R126" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10477,7 +10384,7 @@
         <v>70</v>
       </c>
       <c r="L127" s="20" t="s">
-        <v>740</v>
+        <v>270</v>
       </c>
       <c r="M127" s="20" t="s">
         <v>66</v>
@@ -10495,7 +10402,7 @@
         <v>248</v>
       </c>
       <c r="R127" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10531,7 +10438,7 @@
         <v>70</v>
       </c>
       <c r="L128" s="20" t="s">
-        <v>741</v>
+        <v>271</v>
       </c>
       <c r="M128" s="20" t="s">
         <v>67</v>
@@ -10549,7 +10456,7 @@
         <v>248</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10557,7 +10464,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>19</v>
@@ -10573,10 +10480,10 @@
         <v>6</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="I129" s="24" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="J129" s="24" t="s">
         <v>235</v>
@@ -10585,7 +10492,7 @@
         <v>235</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>738</v>
+        <v>268</v>
       </c>
       <c r="M129" s="19" t="s">
         <v>16</v>
@@ -10603,7 +10510,7 @@
         <v>247</v>
       </c>
       <c r="R129" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10611,7 +10518,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>20</v>
@@ -10636,16 +10543,16 @@
         <v>241</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>742</v>
+        <v>272</v>
       </c>
       <c r="M130" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="O130" s="19" t="s">
         <v>18</v>
@@ -10654,10 +10561,10 @@
         <v>68</v>
       </c>
       <c r="Q130" s="15" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="R130" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10665,7 +10572,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>20</v>
@@ -10693,7 +10600,7 @@
         <v>70</v>
       </c>
       <c r="L131" s="20" t="s">
-        <v>650</v>
+        <v>713</v>
       </c>
       <c r="M131" s="20" t="s">
         <v>73</v>
@@ -10711,7 +10618,7 @@
         <v>248</v>
       </c>
       <c r="R131" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10719,7 +10626,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>20</v>
@@ -10747,7 +10654,7 @@
         <v>80</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>743</v>
+        <v>273</v>
       </c>
       <c r="M132" s="20" t="s">
         <v>74</v>
@@ -10765,7 +10672,7 @@
         <v>248</v>
       </c>
       <c r="R132" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10773,7 +10680,7 @@
         <v>14</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>19</v>
@@ -10789,10 +10696,10 @@
         <v>6</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="J133" s="24" t="s">
         <v>235</v>
@@ -10801,7 +10708,7 @@
         <v>235</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>744</v>
+        <v>274</v>
       </c>
       <c r="M133" s="19" t="s">
         <v>16</v>
@@ -10819,7 +10726,7 @@
         <v>247</v>
       </c>
       <c r="R133" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10827,7 +10734,7 @@
         <v>14</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>20</v>
@@ -10837,7 +10744,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="G134" s="24">
         <v>6</v>
@@ -10852,16 +10759,16 @@
         <v>243</v>
       </c>
       <c r="K134" s="15" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="L134" s="19" t="s">
-        <v>745</v>
+        <v>275</v>
       </c>
       <c r="M134" s="19" t="s">
         <v>83</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="O134" s="19" t="s">
         <v>18</v>
@@ -10870,10 +10777,10 @@
         <v>68</v>
       </c>
       <c r="Q134" s="15" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="R134" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10881,7 +10788,7 @@
         <v>14</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>20</v>
@@ -10891,7 +10798,7 @@
         <v>134</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="G135" s="24">
         <v>6</v>
@@ -10909,7 +10816,7 @@
         <v>80</v>
       </c>
       <c r="L135" s="20" t="s">
-        <v>746</v>
+        <v>276</v>
       </c>
       <c r="M135" s="20" t="s">
         <v>84</v>
@@ -10927,7 +10834,7 @@
         <v>248</v>
       </c>
       <c r="R135" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10951,10 +10858,10 @@
         <v>6</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="J136" s="24" t="s">
         <v>235</v>
@@ -10963,7 +10870,7 @@
         <v>235</v>
       </c>
       <c r="L136" s="19" t="s">
-        <v>747</v>
+        <v>277</v>
       </c>
       <c r="M136" s="19" t="s">
         <v>16</v>
@@ -10981,7 +10888,7 @@
         <v>247</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11005,10 +10912,10 @@
         <v>6</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="J137" s="24" t="s">
         <v>235</v>
@@ -11017,7 +10924,7 @@
         <v>235</v>
       </c>
       <c r="L137" s="19" t="s">
-        <v>748</v>
+        <v>278</v>
       </c>
       <c r="M137" s="19" t="s">
         <v>16</v>
@@ -11035,7 +10942,7 @@
         <v>247</v>
       </c>
       <c r="R137" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11053,7 +10960,7 @@
         <v>137</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="G138" s="24">
         <v>6</v>
@@ -11071,7 +10978,7 @@
         <v>80</v>
       </c>
       <c r="L138" s="19" t="s">
-        <v>749</v>
+        <v>279</v>
       </c>
       <c r="M138" s="19" t="s">
         <v>90</v>
@@ -11089,7 +10996,7 @@
         <v>248</v>
       </c>
       <c r="R138" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11107,7 +11014,7 @@
         <v>138</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="G139" s="24">
         <v>6</v>
@@ -11125,7 +11032,7 @@
         <v>80</v>
       </c>
       <c r="L139" s="20" t="s">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="M139" s="20" t="s">
         <v>91</v>
@@ -11143,7 +11050,7 @@
         <v>248</v>
       </c>
       <c r="R139" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11161,7 +11068,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="G140" s="24">
         <v>6</v>
@@ -11179,7 +11086,7 @@
         <v>80</v>
       </c>
       <c r="L140" s="20" t="s">
-        <v>751</v>
+        <v>281</v>
       </c>
       <c r="M140" s="20" t="s">
         <v>92</v>
@@ -11197,7 +11104,7 @@
         <v>248</v>
       </c>
       <c r="R140" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11215,7 +11122,7 @@
         <v>140</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="G141" s="24">
         <v>6</v>
@@ -11233,7 +11140,7 @@
         <v>80</v>
       </c>
       <c r="L141" s="20" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="M141" s="20" t="s">
         <v>93</v>
@@ -11251,7 +11158,7 @@
         <v>248</v>
       </c>
       <c r="R141" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11275,10 +11182,10 @@
         <v>6</v>
       </c>
       <c r="H142" s="24" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="I142" s="24" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="J142" s="24" t="s">
         <v>235</v>
@@ -11287,7 +11194,7 @@
         <v>235</v>
       </c>
       <c r="L142" s="19" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="M142" s="19" t="s">
         <v>16</v>
@@ -11305,7 +11212,7 @@
         <v>247</v>
       </c>
       <c r="R142" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11323,7 +11230,7 @@
         <v>142</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="G143" s="24">
         <v>6</v>
@@ -11338,16 +11245,16 @@
         <v>245</v>
       </c>
       <c r="K143" s="15" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="L143" s="19" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="M143" s="19" t="s">
         <v>110</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="O143" s="19" t="s">
         <v>18</v>
@@ -11356,10 +11263,10 @@
         <v>68</v>
       </c>
       <c r="Q143" s="15" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="R143" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11395,7 +11302,7 @@
         <v>70</v>
       </c>
       <c r="L144" s="19" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="M144" s="19" t="s">
         <v>111</v>
@@ -11413,7 +11320,7 @@
         <v>248</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11449,7 +11356,7 @@
         <v>70</v>
       </c>
       <c r="L145" s="19" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="M145" s="19" t="s">
         <v>112</v>
@@ -11467,7 +11374,7 @@
         <v>248</v>
       </c>
       <c r="R145" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11503,7 +11410,7 @@
         <v>70</v>
       </c>
       <c r="L146" s="19" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="M146" s="19" t="s">
         <v>113</v>
@@ -11521,7 +11428,7 @@
         <v>248</v>
       </c>
       <c r="R146" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11557,7 +11464,7 @@
         <v>80</v>
       </c>
       <c r="L147" s="19" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="M147" s="19" t="s">
         <v>114</v>
@@ -11575,7 +11482,7 @@
         <v>248</v>
       </c>
       <c r="R147" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11611,7 +11518,7 @@
         <v>80</v>
       </c>
       <c r="L148" s="19" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="M148" s="19" t="s">
         <v>115</v>
@@ -11629,7 +11536,7 @@
         <v>248</v>
       </c>
       <c r="R148" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11653,10 +11560,10 @@
         <v>6</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="J149" s="24" t="s">
         <v>235</v>
@@ -11665,7 +11572,7 @@
         <v>235</v>
       </c>
       <c r="L149" s="19" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="M149" s="19" t="s">
         <v>16</v>
@@ -11683,7 +11590,7 @@
         <v>247</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11701,7 +11608,7 @@
         <v>149</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="G150" s="15">
         <v>6</v>
@@ -11719,7 +11626,7 @@
         <v>80</v>
       </c>
       <c r="L150" s="19" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="M150" s="19" t="s">
         <v>117</v>
@@ -11737,7 +11644,7 @@
         <v>248</v>
       </c>
       <c r="R150" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11748,7 +11655,7 @@
         <v>119</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>20</v>
@@ -11776,7 +11683,7 @@
         <v>123</v>
       </c>
       <c r="L151" s="19" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="M151" s="19" t="s">
         <v>124</v>
@@ -11794,7 +11701,7 @@
         <v>26</v>
       </c>
       <c r="R151" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11802,7 +11709,7 @@
         <v>14</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>20</v>
@@ -11812,7 +11719,7 @@
         <v>151</v>
       </c>
       <c r="F152" s="33" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="G152" s="15">
         <v>7</v>
@@ -11830,7 +11737,7 @@
         <v>123</v>
       </c>
       <c r="L152" s="19" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="M152" s="19" t="s">
         <v>125</v>
@@ -11848,7 +11755,7 @@
         <v>130</v>
       </c>
       <c r="R152" s="15" t="s">
-        <v>809</v>
+        <v>693</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11857,7 +11764,7 @@
       </c>
       <c r="B153" s="24"/>
       <c r="C153" s="24" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>20</v>
@@ -11867,7 +11774,7 @@
         <v>152</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="G153" s="15">
         <v>7</v>
@@ -11876,16 +11783,16 @@
         <v>219</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>806</v>
+        <v>690</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K153" s="15" t="s">
         <v>123</v>
       </c>
       <c r="L153" s="19" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="M153" s="19" t="s">
         <v>126</v>
@@ -11894,7 +11801,7 @@
         <v>17</v>
       </c>
       <c r="O153" s="19" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P153" s="19" t="s">
         <v>25</v>
@@ -11903,7 +11810,7 @@
         <v>131</v>
       </c>
       <c r="R153" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11934,19 +11841,19 @@
         <v>137</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K154" s="15" t="s">
         <v>123</v>
       </c>
       <c r="L154" s="19" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="M154" s="19" t="s">
         <v>127</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O154" s="19" t="s">
         <v>18</v>
@@ -11958,18 +11865,18 @@
         <v>132</v>
       </c>
       <c r="R154" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>19</v>
@@ -11997,7 +11904,7 @@
         <v>235</v>
       </c>
       <c r="L155" s="15" t="s">
-        <v>762</v>
+        <v>565</v>
       </c>
       <c r="M155" s="15" t="s">
         <v>16</v>
@@ -12015,16 +11922,16 @@
         <v>247</v>
       </c>
       <c r="R155" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>20</v>
@@ -12034,52 +11941,52 @@
         <v>155</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="G156" s="15">
         <v>8</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="J156" s="13" t="s">
         <v>235</v>
       </c>
       <c r="K156" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L156" s="16" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="M156" s="15" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="N156" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O156" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P156" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q156" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R156" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>20</v>
@@ -12089,52 +11996,52 @@
         <v>156</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="G157" s="13">
         <v>8</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="J157" s="13" t="s">
         <v>235</v>
       </c>
       <c r="K157" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L157" s="16" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="M157" s="15" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="N157" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O157" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P157" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q157" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R157" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D158" s="13" t="s">
         <v>20</v>
@@ -12144,52 +12051,52 @@
         <v>157</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="G158" s="13">
         <v>8</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="J158" s="13" t="s">
         <v>235</v>
       </c>
       <c r="K158" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L158" s="16" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="M158" s="15" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="N158" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O158" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P158" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q158" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R158" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>20</v>
@@ -12199,13 +12106,13 @@
         <v>158</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="G159" s="13">
         <v>8</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="I159" s="13" t="s">
         <v>243</v>
@@ -12214,37 +12121,37 @@
         <v>235</v>
       </c>
       <c r="K159" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L159" s="16" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="M159" s="15" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="N159" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O159" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P159" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q159" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R159" s="15" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>20</v>
@@ -12254,13 +12161,13 @@
         <v>159</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="G160" s="13">
         <v>8</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="I160" s="13" t="s">
         <v>241</v>
@@ -12269,37 +12176,37 @@
         <v>235</v>
       </c>
       <c r="K160" s="13" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="M160" s="13" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="N160" s="13" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O160" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P160" s="13" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q160" s="13" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D161" s="13" t="s">
         <v>20</v>
@@ -12309,13 +12216,13 @@
         <v>160</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="G161" s="13">
         <v>8</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="I161" s="13" t="s">
         <v>245</v>
@@ -12324,37 +12231,37 @@
         <v>235</v>
       </c>
       <c r="K161" s="13" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L161" s="14" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="M161" s="13" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="N161" s="13" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O161" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P161" s="13" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q161" s="13" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>20</v>
@@ -12364,13 +12271,13 @@
         <v>161</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="G162" s="13">
         <v>8</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="I162" s="13" t="s">
         <v>239</v>
@@ -12379,37 +12286,37 @@
         <v>235</v>
       </c>
       <c r="K162" s="13" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L162" s="14" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="M162" s="13" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="N162" s="13" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O162" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P162" s="13" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q162" s="13" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R162" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="13" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>20</v>
@@ -12419,52 +12326,52 @@
         <v>162</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="G163" s="13">
         <v>8</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="J163" s="13" t="s">
         <v>235</v>
       </c>
       <c r="K163" s="13" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L163" s="14" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="M163" s="13" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="N163" s="13" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O163" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P163" s="13" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q163" s="13" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R163" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B164" s="15"/>
       <c r="C164" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>20</v>
@@ -12474,52 +12381,52 @@
         <v>163</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="G164" s="15">
         <v>8</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="I164" s="15" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="J164" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K164" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L164" s="16" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="M164" s="15" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="N164" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O164" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P164" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q164" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>20</v>
@@ -12529,52 +12436,52 @@
         <v>164</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="G165" s="15">
         <v>8</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="I165" s="15" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="J165" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K165" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L165" s="16" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="M165" s="15" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N165" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O165" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P165" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q165" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R165" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>20</v>
@@ -12584,52 +12491,52 @@
         <v>165</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="G166" s="15">
         <v>8</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="I166" s="15" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="J166" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K166" s="15" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L166" s="16" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="M166" s="15" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="N166" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O166" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P166" s="15" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="Q166" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B167" s="15"/>
       <c r="C167" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>20</v>
@@ -12639,52 +12546,52 @@
         <v>166</v>
       </c>
       <c r="F167" s="15" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="G167" s="15">
         <v>8</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="I167" s="15" t="s">
-        <v>805</v>
+        <v>689</v>
       </c>
       <c r="J167" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K167" s="15" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="M167" s="15" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="N167" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O167" s="15" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="P167" s="15" t="s">
         <v>129</v>
       </c>
       <c r="Q167" s="15" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="R167" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>20</v>
@@ -12694,31 +12601,31 @@
         <v>167</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="G168" s="15">
         <v>8</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="J168" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K168" s="15" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="L168" s="15" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="M168" s="15" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="N168" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O168" s="15" t="s">
         <v>18</v>
@@ -12727,19 +12634,19 @@
         <v>25</v>
       </c>
       <c r="Q168" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R168" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B169" s="15"/>
       <c r="C169" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>20</v>
@@ -12749,28 +12656,28 @@
         <v>168</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="G169" s="15">
         <v>8</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="I169" s="15" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="J169" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="L169" s="15" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="M169" s="15" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="N169" s="15" t="s">
         <v>17</v>
@@ -12785,16 +12692,16 @@
         <v>26</v>
       </c>
       <c r="R169" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B170" s="15"/>
       <c r="C170" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>20</v>
@@ -12804,28 +12711,28 @@
         <v>169</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="G170" s="15">
         <v>8</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="I170" s="15" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="J170" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K170" s="15" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="L170" s="15" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="M170" s="15" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="N170" s="15" t="s">
         <v>17</v>
@@ -12840,16 +12747,16 @@
         <v>26</v>
       </c>
       <c r="R170" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B171" s="15"/>
       <c r="C171" s="15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>20</v>
@@ -12859,28 +12766,28 @@
         <v>170</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="G171" s="15">
         <v>8</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="J171" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K171" s="15" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="L171" s="15" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="M171" s="15" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="N171" s="15" t="s">
         <v>17</v>
@@ -12895,16 +12802,16 @@
         <v>26</v>
       </c>
       <c r="R171" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B172" s="15"/>
       <c r="C172" s="18" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>19</v>
@@ -12932,7 +12839,7 @@
         <v>235</v>
       </c>
       <c r="L172" s="15" t="s">
-        <v>779</v>
+        <v>631</v>
       </c>
       <c r="M172" s="15" t="s">
         <v>16</v>
@@ -12950,16 +12857,16 @@
         <v>247</v>
       </c>
       <c r="R172" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B173" s="15"/>
       <c r="C173" s="18" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>20</v>
@@ -12969,31 +12876,31 @@
         <v>172</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="G173" s="15">
         <v>8</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="I173" s="15" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="J173" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K173" s="15" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="L173" s="15" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="M173" s="15" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="N173" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="O173" s="15" t="s">
         <v>18</v>
@@ -13002,19 +12909,19 @@
         <v>25</v>
       </c>
       <c r="Q173" s="15" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="R173" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B174" s="15"/>
       <c r="C174" s="18" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>19</v>
@@ -13042,7 +12949,7 @@
         <v>235</v>
       </c>
       <c r="L174" s="15" t="s">
-        <v>781</v>
+        <v>636</v>
       </c>
       <c r="M174" s="15" t="s">
         <v>16</v>
@@ -13060,16 +12967,16 @@
         <v>247</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B175" s="15"/>
       <c r="C175" s="18" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>19</v>
@@ -13097,7 +13004,7 @@
         <v>235</v>
       </c>
       <c r="L175" s="15" t="s">
-        <v>782</v>
+        <v>637</v>
       </c>
       <c r="M175" s="15" t="s">
         <v>16</v>
@@ -13115,16 +13022,16 @@
         <v>247</v>
       </c>
       <c r="R175" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B176" s="15"/>
       <c r="C176" s="18" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>19</v>
@@ -13152,7 +13059,7 @@
         <v>235</v>
       </c>
       <c r="L176" s="15" t="s">
-        <v>783</v>
+        <v>638</v>
       </c>
       <c r="M176" s="15" t="s">
         <v>16</v>
@@ -13170,16 +13077,16 @@
         <v>247</v>
       </c>
       <c r="R176" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B177" s="15"/>
       <c r="C177" s="18" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>20</v>
@@ -13189,28 +13096,28 @@
         <v>176</v>
       </c>
       <c r="F177" s="15" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="G177" s="15">
         <v>8</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="J177" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K177" s="15" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="L177" s="15" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="M177" s="15" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="N177" s="15" t="s">
         <v>17</v>
@@ -13219,22 +13126,22 @@
         <v>18</v>
       </c>
       <c r="P177" s="15" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="Q177" s="15" t="s">
         <v>248</v>
       </c>
       <c r="R177" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B178" s="15"/>
       <c r="C178" s="18" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>20</v>
@@ -13244,28 +13151,28 @@
         <v>177</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="G178" s="15">
         <v>8</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="I178" s="17" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="J178" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K178" s="15" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="L178" s="15" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="M178" s="15" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="N178" s="15" t="s">
         <v>17</v>
@@ -13274,24 +13181,24 @@
         <v>18</v>
       </c>
       <c r="P178" s="15" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="Q178" s="15" t="s">
         <v>248</v>
       </c>
       <c r="R178" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="179" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>19</v>
@@ -13307,10 +13214,10 @@
         <v>9</v>
       </c>
       <c r="H179" s="40" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="I179" s="15" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="J179" s="15" t="s">
         <v>235</v>
@@ -13319,7 +13226,7 @@
         <v>235</v>
       </c>
       <c r="L179" s="15" t="s">
-        <v>786</v>
+        <v>652</v>
       </c>
       <c r="M179" s="15" t="s">
         <v>16</v>
@@ -13337,18 +13244,18 @@
         <v>247</v>
       </c>
       <c r="R179" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>20</v>
@@ -13358,28 +13265,28 @@
         <v>179</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="G180" s="15">
         <v>9</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="I180" s="15" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="J180" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K180" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L180" s="15" t="s">
-        <v>707</v>
+        <v>758</v>
       </c>
       <c r="M180" s="15" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="N180" s="15" t="s">
         <v>17</v>
@@ -13394,18 +13301,18 @@
         <v>248</v>
       </c>
       <c r="R180" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>20</v>
@@ -13415,28 +13322,28 @@
         <v>180</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="G181" s="15">
         <v>9</v>
       </c>
       <c r="H181" s="15" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="I181" s="15" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="J181" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K181" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L181" s="15" t="s">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="M181" s="15" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="N181" s="15" t="s">
         <v>17</v>
@@ -13451,18 +13358,18 @@
         <v>248</v>
       </c>
       <c r="R181" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="182" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>20</v>
@@ -13472,28 +13379,28 @@
         <v>181</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="G182" s="15">
         <v>9</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="I182" s="15" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="J182" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K182" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L182" s="15" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="M182" s="15" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="N182" s="15" t="s">
         <v>17</v>
@@ -13508,18 +13415,18 @@
         <v>248</v>
       </c>
       <c r="R182" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>20</v>
@@ -13529,28 +13436,28 @@
         <v>182</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="G183" s="15">
         <v>9</v>
       </c>
       <c r="H183" s="15" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="I183" s="15" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="J183" s="15" t="s">
         <v>235</v>
       </c>
       <c r="K183" s="15" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="L183" s="15" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="M183" s="15" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="N183" s="15" t="s">
         <v>17</v>
@@ -13565,18 +13472,18 @@
         <v>248</v>
       </c>
       <c r="R183" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>20</v>
@@ -13586,54 +13493,54 @@
         <v>183</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="G184" s="15">
         <v>9</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>804</v>
+        <v>688</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="K184" s="15" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="L184" s="15" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="M184" s="15" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="N184" s="15" t="s">
         <v>17</v>
       </c>
       <c r="O184" s="15" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P184" s="15" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="Q184" s="15" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="R184" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>19</v>
@@ -13649,10 +13556,10 @@
         <v>10</v>
       </c>
       <c r="H185" s="40" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="J185" s="15" t="s">
         <v>235</v>
@@ -13661,7 +13568,7 @@
         <v>235</v>
       </c>
       <c r="L185" s="15" t="s">
-        <v>789</v>
+        <v>664</v>
       </c>
       <c r="M185" s="15" t="s">
         <v>16</v>
@@ -13679,18 +13586,18 @@
         <v>247</v>
       </c>
       <c r="R185" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>19</v>
@@ -13706,10 +13613,10 @@
         <v>10</v>
       </c>
       <c r="H186" s="40" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="J186" s="15" t="s">
         <v>235</v>
@@ -13718,7 +13625,7 @@
         <v>235</v>
       </c>
       <c r="L186" s="15" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="M186" s="15" t="s">
         <v>16</v>
@@ -13736,18 +13643,18 @@
         <v>247</v>
       </c>
       <c r="R186" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="187" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="15" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>19</v>
@@ -13763,10 +13670,10 @@
         <v>10</v>
       </c>
       <c r="H187" s="40" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="J187" s="15" t="s">
         <v>235</v>
@@ -13775,7 +13682,7 @@
         <v>235</v>
       </c>
       <c r="L187" s="15" t="s">
-        <v>790</v>
+        <v>666</v>
       </c>
       <c r="M187" s="15" t="s">
         <v>16</v>
@@ -13793,7 +13700,7 @@
         <v>247</v>
       </c>
       <c r="R187" s="1" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -13904,7 +13811,7 @@
         <v>70</v>
       </c>
       <c r="L1048504" s="5" t="s">
-        <v>760</v>
+        <v>673</v>
       </c>
       <c r="M1048504" s="4" t="s">
         <v>126</v>
@@ -13913,7 +13820,7 @@
         <v>17</v>
       </c>
       <c r="O1048504" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048504" s="4" t="s">
         <v>25</v>
@@ -13954,7 +13861,7 @@
         <v>123</v>
       </c>
       <c r="L1048505" s="5" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="M1048505" s="4" t="s">
         <v>127</v>
@@ -14004,7 +13911,7 @@
         <v>140</v>
       </c>
       <c r="L1048506" s="8" t="s">
-        <v>791</v>
+        <v>675</v>
       </c>
       <c r="M1048506" s="4" t="s">
         <v>155</v>
@@ -14013,7 +13920,7 @@
         <v>233</v>
       </c>
       <c r="O1048506" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048506" s="4" t="s">
         <v>145</v>
@@ -14054,7 +13961,7 @@
         <v>140</v>
       </c>
       <c r="L1048507" s="8" t="s">
-        <v>792</v>
+        <v>676</v>
       </c>
       <c r="M1048507" s="4" t="s">
         <v>154</v>
@@ -14063,7 +13970,7 @@
         <v>233</v>
       </c>
       <c r="O1048507" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048507" s="4" t="s">
         <v>142</v>
@@ -14104,7 +14011,7 @@
         <v>150</v>
       </c>
       <c r="L1048508" s="8" t="s">
-        <v>793</v>
+        <v>677</v>
       </c>
       <c r="M1048508" s="4" t="s">
         <v>152</v>
@@ -14113,7 +14020,7 @@
         <v>17</v>
       </c>
       <c r="O1048508" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048508" s="4" t="s">
         <v>129</v>
@@ -14154,7 +14061,7 @@
         <v>150</v>
       </c>
       <c r="L1048509" s="8" t="s">
-        <v>794</v>
+        <v>678</v>
       </c>
       <c r="M1048509" s="4" t="s">
         <v>153</v>
@@ -14163,7 +14070,7 @@
         <v>17</v>
       </c>
       <c r="O1048509" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048509" s="4" t="s">
         <v>129</v>
@@ -14204,7 +14111,7 @@
         <v>159</v>
       </c>
       <c r="L1048510" s="8" t="s">
-        <v>795</v>
+        <v>679</v>
       </c>
       <c r="M1048510" s="4" t="s">
         <v>164</v>
@@ -14213,7 +14120,7 @@
         <v>17</v>
       </c>
       <c r="O1048510" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048510" s="4" t="s">
         <v>162</v>
@@ -14254,7 +14161,7 @@
         <v>161</v>
       </c>
       <c r="L1048511" s="8" t="s">
-        <v>796</v>
+        <v>680</v>
       </c>
       <c r="M1048511" s="4" t="s">
         <v>165</v>
@@ -14263,7 +14170,7 @@
         <v>17</v>
       </c>
       <c r="O1048511" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048511" s="4" t="s">
         <v>163</v>
@@ -14304,7 +14211,7 @@
         <v>168</v>
       </c>
       <c r="L1048512" s="8" t="s">
-        <v>797</v>
+        <v>681</v>
       </c>
       <c r="M1048512" s="4" t="s">
         <v>170</v>
@@ -14313,7 +14220,7 @@
         <v>17</v>
       </c>
       <c r="O1048512" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048512" s="4" t="s">
         <v>169</v>
@@ -14354,7 +14261,7 @@
         <v>168</v>
       </c>
       <c r="L1048513" s="8" t="s">
-        <v>798</v>
+        <v>682</v>
       </c>
       <c r="M1048513" s="4" t="s">
         <v>179</v>
@@ -14363,7 +14270,7 @@
         <v>17</v>
       </c>
       <c r="O1048513" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048513" s="4" t="s">
         <v>177</v>
@@ -14404,7 +14311,7 @@
         <v>168</v>
       </c>
       <c r="L1048514" s="8" t="s">
-        <v>799</v>
+        <v>683</v>
       </c>
       <c r="M1048514" s="4" t="s">
         <v>180</v>
@@ -14413,7 +14320,7 @@
         <v>17</v>
       </c>
       <c r="O1048514" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048514" s="4" t="s">
         <v>178</v>
@@ -14454,7 +14361,7 @@
         <v>168</v>
       </c>
       <c r="L1048515" s="8" t="s">
-        <v>800</v>
+        <v>684</v>
       </c>
       <c r="M1048515" s="4" t="s">
         <v>184</v>
@@ -14463,7 +14370,7 @@
         <v>17</v>
       </c>
       <c r="O1048515" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048515" s="4" t="s">
         <v>183</v>
@@ -14504,7 +14411,7 @@
         <v>168</v>
       </c>
       <c r="L1048516" s="8" t="s">
-        <v>801</v>
+        <v>685</v>
       </c>
       <c r="M1048516" s="4" t="s">
         <v>185</v>
@@ -14513,7 +14420,7 @@
         <v>17</v>
       </c>
       <c r="O1048516" s="4" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="P1048516" s="4" t="s">
         <v>186</v>

--- a/data-viz/inputs/report_outline.xlsx
+++ b/data-viz/inputs/report_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icoddington\Github\eu-thematic-reports\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D229C6-B3B8-4DE8-83C6-C097161C9630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E9158-CFE1-4198-AE5C-FEBA56F7F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E80D87-C70E-4028-A5D2-942CA65BEF0E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="786">
   <si>
     <t>report</t>
   </si>
@@ -2528,7 +2528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2573,6 +2573,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3090,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B889B-2B8F-47B3-B684-D177E81CA62D}">
   <dimension ref="A1:S187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3103,7 +3104,7 @@
     <col min="5" max="5" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.6328125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.6328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.90625" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.453125" style="1" customWidth="1"/>
@@ -3111,7 +3112,7 @@
     <col min="13" max="13" width="9.54296875" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.26953125" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.6328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.08984375" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="37.54296875" style="1" customWidth="1"/>
     <col min="18" max="18" width="5.7265625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="8.7265625" style="1"/>
@@ -4929,8 +4930,8 @@
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
+      <c r="E31" s="21">
+        <f xml:space="preserve"> ROW()-1</f>
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -7029,7 +7030,7 @@
       <c r="D66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -7149,7 +7150,7 @@
       <c r="D68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="25">
         <f t="shared" ref="E68:E131" si="1" xml:space="preserve"> ROW()-1</f>
         <v>67</v>
       </c>
@@ -7689,7 +7690,7 @@
       <c r="D77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="26">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -10595,6 +10596,9 @@
       <c r="A126" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C126" s="15" t="s">
         <v>66</v>
       </c>
@@ -10652,6 +10656,9 @@
       <c r="A127" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C127" s="15" t="s">
         <v>66</v>
       </c>
@@ -10709,6 +10716,9 @@
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C128" s="15" t="s">
         <v>66</v>
       </c>
@@ -10766,6 +10776,9 @@
       <c r="A129" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>257</v>
       </c>
@@ -10823,6 +10836,9 @@
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>257</v>
       </c>
@@ -10880,6 +10896,9 @@
       <c r="A131" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>257</v>
       </c>
@@ -10937,6 +10956,9 @@
       <c r="A132" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>257</v>
       </c>
@@ -10994,6 +11016,9 @@
       <c r="A133" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>263</v>
       </c>
@@ -11051,6 +11076,9 @@
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>263</v>
       </c>
@@ -11108,6 +11136,9 @@
       <c r="A135" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>263</v>
       </c>
@@ -11165,6 +11196,9 @@
       <c r="A136" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C136" s="15" t="s">
         <v>91</v>
       </c>
@@ -11222,6 +11256,9 @@
       <c r="A137" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C137" s="15" t="s">
         <v>93</v>
       </c>
@@ -11279,6 +11316,9 @@
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C138" s="15" t="s">
         <v>93</v>
       </c>
@@ -11336,6 +11376,9 @@
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C139" s="15" t="s">
         <v>93</v>
       </c>
@@ -11393,6 +11436,9 @@
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C140" s="15" t="s">
         <v>93</v>
       </c>
@@ -11450,6 +11496,9 @@
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C141" s="15" t="s">
         <v>93</v>
       </c>
@@ -11507,6 +11556,9 @@
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C142" s="15" t="s">
         <v>104</v>
       </c>
@@ -11564,6 +11616,9 @@
       <c r="A143" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C143" s="15" t="s">
         <v>104</v>
       </c>
@@ -11621,6 +11676,9 @@
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C144" s="15" t="s">
         <v>104</v>
       </c>
@@ -11678,6 +11736,9 @@
       <c r="A145" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C145" s="15" t="s">
         <v>104</v>
       </c>
@@ -11735,6 +11796,9 @@
       <c r="A146" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B146" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C146" s="15" t="s">
         <v>104</v>
       </c>
@@ -11792,6 +11856,9 @@
       <c r="A147" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C147" s="15" t="s">
         <v>104</v>
       </c>
@@ -11849,6 +11916,9 @@
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C148" s="15" t="s">
         <v>104</v>
       </c>
@@ -11906,6 +11976,9 @@
       <c r="A149" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B149" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C149" s="15" t="s">
         <v>122</v>
       </c>
@@ -11963,6 +12036,9 @@
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B150" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C150" s="15" t="s">
         <v>122</v>
       </c>
@@ -12080,6 +12156,9 @@
       <c r="A152" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B152" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>549</v>
       </c>
@@ -12137,6 +12216,9 @@
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B153" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>549</v>
       </c>
@@ -12194,6 +12276,9 @@
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B154" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C154" s="15" t="s">
         <v>140</v>
       </c>
@@ -12311,6 +12396,9 @@
       <c r="A156" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B156" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>554</v>
       </c>
@@ -12368,6 +12456,9 @@
       <c r="A157" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>554</v>
       </c>
@@ -12425,6 +12516,9 @@
       <c r="A158" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>554</v>
       </c>
@@ -12482,6 +12576,9 @@
       <c r="A159" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>554</v>
       </c>
@@ -12539,6 +12636,9 @@
       <c r="A160" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>554</v>
       </c>
@@ -12596,6 +12696,9 @@
       <c r="A161" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>554</v>
       </c>
@@ -12653,6 +12756,9 @@
       <c r="A162" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>554</v>
       </c>
@@ -12710,6 +12816,9 @@
       <c r="A163" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>554</v>
       </c>
@@ -12767,6 +12876,9 @@
       <c r="A164" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B164" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>554</v>
       </c>
@@ -12824,6 +12936,9 @@
       <c r="A165" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B165" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>554</v>
       </c>
@@ -12881,6 +12996,9 @@
       <c r="A166" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>554</v>
       </c>
@@ -12938,6 +13056,9 @@
       <c r="A167" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>554</v>
       </c>
@@ -12995,6 +13116,9 @@
       <c r="A168" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B168" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>554</v>
       </c>
@@ -13052,6 +13176,9 @@
       <c r="A169" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>554</v>
       </c>
@@ -13109,6 +13236,9 @@
       <c r="A170" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>554</v>
       </c>
@@ -13166,6 +13296,9 @@
       <c r="A171" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>554</v>
       </c>
@@ -13223,6 +13356,9 @@
       <c r="A172" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B172" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C172" s="3" t="s">
         <v>620</v>
       </c>
@@ -13280,6 +13416,9 @@
       <c r="A173" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B173" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C173" s="3" t="s">
         <v>620</v>
       </c>
@@ -13337,6 +13476,9 @@
       <c r="A174" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C174" s="3" t="s">
         <v>625</v>
       </c>
@@ -13394,6 +13536,9 @@
       <c r="A175" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C175" s="3" t="s">
         <v>626</v>
       </c>
@@ -13451,6 +13596,9 @@
       <c r="A176" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C176" s="3" t="s">
         <v>627</v>
       </c>
@@ -13508,6 +13656,9 @@
       <c r="A177" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C177" s="3" t="s">
         <v>627</v>
       </c>
@@ -13564,6 +13715,9 @@
     <row r="178" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>552</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>627</v>

--- a/data-viz/inputs/report_outline.xlsx
+++ b/data-viz/inputs/report_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icoddington\Github\eu-thematic-reports\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63256BC5-A6A2-4FE9-AE90-9E08D0C3D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55BD75-4DFB-4BA5-93FA-F2BB3895D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E80D87-C70E-4028-A5D2-942CA65BEF0E}"/>
+    <workbookView xWindow="29295" yWindow="600" windowWidth="19980" windowHeight="13305" xr2:uid="{E4E80D87-C70E-4028-A5D2-942CA65BEF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -1403,9 +1403,6 @@
     <t>DIS_exp_[ANSWER CODE]</t>
   </si>
   <si>
-    <t>CTZ_gendereq_A</t>
-  </si>
-  <si>
     <t>Citizen Perceptions</t>
   </si>
   <si>
@@ -1446,15 +1443,6 @@
   </si>
   <si>
     <t>CPB_unions</t>
-  </si>
-  <si>
-    <t>CTZ_consrights_A</t>
-  </si>
-  <si>
-    <t>CTZ_laborcond_A</t>
-  </si>
-  <si>
-    <t>CTZ_envprotect_A</t>
   </si>
   <si>
     <t>In practice, workers in [COUNTRY] can freely form labor unions and bargain for their rights with their employers</t>
@@ -2380,6 +2368,18 @@
   </si>
   <si>
     <t>p_2_2_1</t>
+  </si>
+  <si>
+    <t>CTZ_gendereq</t>
+  </si>
+  <si>
+    <t>CTZ_consrights</t>
+  </si>
+  <si>
+    <t>CTZ_laborcond</t>
+  </si>
+  <si>
+    <t>CTZ_envprotect</t>
   </si>
 </sst>
 </file>
@@ -2418,6 +2418,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3069,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B889B-2B8F-47B3-B684-D177E81CA62D}">
   <dimension ref="A1:S187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M187" sqref="M187"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3122,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>225</v>
@@ -3152,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3212,7 +3213,7 @@
         <v>235</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3272,7 +3273,7 @@
         <v>235</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3332,7 +3333,7 @@
         <v>236</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3392,7 +3393,7 @@
         <v>236</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3452,7 +3453,7 @@
         <v>235</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3512,7 +3513,7 @@
         <v>235</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3554,7 +3555,7 @@
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="N8" t="s">
         <v>280</v>
@@ -3572,7 +3573,7 @@
         <v>236</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3632,7 +3633,7 @@
         <v>236</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3674,7 +3675,7 @@
         <v>410</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="N10" t="s">
         <v>288</v>
@@ -3692,7 +3693,7 @@
         <v>236</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3734,7 +3735,7 @@
         <v>410</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="N11" t="s">
         <v>289</v>
@@ -3752,7 +3753,7 @@
         <v>236</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3812,7 +3813,7 @@
         <v>235</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3854,7 +3855,7 @@
         <v>312</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="N13" t="s">
         <v>292</v>
@@ -3872,7 +3873,7 @@
         <v>236</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3914,7 +3915,7 @@
         <v>312</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="N14" t="s">
         <v>293</v>
@@ -3932,7 +3933,7 @@
         <v>236</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -3974,7 +3975,7 @@
         <v>312</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="N15" t="s">
         <v>294</v>
@@ -3992,7 +3993,7 @@
         <v>236</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4034,7 +4035,7 @@
         <v>312</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N16" t="s">
         <v>295</v>
@@ -4052,7 +4053,7 @@
         <v>236</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4094,7 +4095,7 @@
         <v>312</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="N17" t="s">
         <v>296</v>
@@ -4112,7 +4113,7 @@
         <v>236</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4154,7 +4155,7 @@
         <v>312</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="N18" t="s">
         <v>297</v>
@@ -4172,7 +4173,7 @@
         <v>236</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4202,7 +4203,7 @@
         <v>319</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>319</v>
@@ -4232,7 +4233,7 @@
         <v>235</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4274,7 +4275,7 @@
         <v>336</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="N20" t="s">
         <v>320</v>
@@ -4283,16 +4284,16 @@
         <v>220</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q20" t="s">
         <v>26</v>
       </c>
       <c r="R20" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4334,7 +4335,7 @@
         <v>336</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="N21" t="s">
         <v>321</v>
@@ -4343,16 +4344,16 @@
         <v>220</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
       </c>
       <c r="R21" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4394,7 +4395,7 @@
         <v>336</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="N22" t="s">
         <v>322</v>
@@ -4403,16 +4404,16 @@
         <v>220</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q22" t="s">
         <v>26</v>
       </c>
       <c r="R22" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4454,7 +4455,7 @@
         <v>336</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="N23" t="s">
         <v>323</v>
@@ -4463,16 +4464,16 @@
         <v>220</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
       </c>
       <c r="R23" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4514,7 +4515,7 @@
         <v>336</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="N24" t="s">
         <v>324</v>
@@ -4523,16 +4524,16 @@
         <v>220</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q24" t="s">
         <v>26</v>
       </c>
       <c r="R24" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4543,7 +4544,7 @@
         <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
@@ -4562,7 +4563,7 @@
         <v>345</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>345</v>
@@ -4574,7 +4575,7 @@
         <v>223</v>
       </c>
       <c r="M25" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="N25" t="s">
         <v>17</v>
@@ -4592,7 +4593,7 @@
         <v>235</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4603,7 +4604,7 @@
         <v>318</v>
       </c>
       <c r="C26" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
@@ -4634,7 +4635,7 @@
         <v>336</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="N26" t="s">
         <v>342</v>
@@ -4643,16 +4644,16 @@
         <v>220</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q26" t="s">
         <v>26</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4663,7 +4664,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>21</v>
@@ -4694,7 +4695,7 @@
         <v>336</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="N27" t="s">
         <v>343</v>
@@ -4703,16 +4704,16 @@
         <v>220</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4723,7 +4724,7 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
@@ -4754,7 +4755,7 @@
         <v>336</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="N28" t="s">
         <v>344</v>
@@ -4763,16 +4764,16 @@
         <v>220</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q28" t="s">
         <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4783,7 +4784,7 @@
         <v>318</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -4802,7 +4803,7 @@
         <v>355</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>355</v>
@@ -4814,7 +4815,7 @@
         <v>223</v>
       </c>
       <c r="M29" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="N29" t="s">
         <v>17</v>
@@ -4832,7 +4833,7 @@
         <v>235</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4862,7 +4863,7 @@
         <v>356</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>356</v>
@@ -4892,7 +4893,7 @@
         <v>235</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4922,7 +4923,7 @@
         <v>357</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>357</v>
@@ -4952,7 +4953,7 @@
         <v>235</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -4994,7 +4995,7 @@
         <v>336</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="N32" t="s">
         <v>360</v>
@@ -5003,16 +5004,16 @@
         <v>220</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q32" t="s">
         <v>26</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5054,7 +5055,7 @@
         <v>336</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="N33" t="s">
         <v>361</v>
@@ -5063,16 +5064,16 @@
         <v>220</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q33" t="s">
         <v>26</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5102,7 +5103,7 @@
         <v>371</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>371</v>
@@ -5132,7 +5133,7 @@
         <v>235</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5174,7 +5175,7 @@
         <v>336</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="N35" t="s">
         <v>368</v>
@@ -5183,16 +5184,16 @@
         <v>220</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q35" t="s">
         <v>26</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5234,7 +5235,7 @@
         <v>336</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="N36" t="s">
         <v>369</v>
@@ -5243,16 +5244,16 @@
         <v>220</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q36" t="s">
         <v>26</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5294,7 +5295,7 @@
         <v>336</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="N37" t="s">
         <v>370</v>
@@ -5303,16 +5304,16 @@
         <v>220</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q37" t="s">
         <v>26</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5342,7 +5343,7 @@
         <v>382</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>382</v>
@@ -5372,7 +5373,7 @@
         <v>235</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5414,7 +5415,7 @@
         <v>312</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>383</v>
@@ -5432,7 +5433,7 @@
         <v>236</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5474,7 +5475,7 @@
         <v>312</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="N40" s="13" t="s">
         <v>384</v>
@@ -5492,7 +5493,7 @@
         <v>236</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5534,7 +5535,7 @@
         <v>410</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="N41" t="s">
         <v>385</v>
@@ -5552,7 +5553,7 @@
         <v>236</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5594,7 +5595,7 @@
         <v>410</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="N42" t="s">
         <v>386</v>
@@ -5603,7 +5604,7 @@
         <v>18</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q42" t="s">
         <v>26</v>
@@ -5612,7 +5613,7 @@
         <v>394</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5654,7 +5655,7 @@
         <v>410</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="N43" t="s">
         <v>387</v>
@@ -5672,7 +5673,7 @@
         <v>236</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5714,7 +5715,7 @@
         <v>312</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="N44" t="s">
         <v>388</v>
@@ -5732,7 +5733,7 @@
         <v>236</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5774,7 +5775,7 @@
         <v>312</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="N45" t="s">
         <v>389</v>
@@ -5792,7 +5793,7 @@
         <v>236</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5834,7 +5835,7 @@
         <v>410</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="N46" t="s">
         <v>390</v>
@@ -5852,7 +5853,7 @@
         <v>236</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5894,7 +5895,7 @@
         <v>418</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="N47" t="s">
         <v>391</v>
@@ -5912,7 +5913,7 @@
         <v>236</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -5954,7 +5955,7 @@
         <v>418</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="N48" t="s">
         <v>392</v>
@@ -5972,7 +5973,7 @@
         <v>236</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6014,7 +6015,7 @@
         <v>418</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="N49" t="s">
         <v>393</v>
@@ -6032,7 +6033,7 @@
         <v>236</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6059,13 +6060,13 @@
         <v>4</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>223</v>
@@ -6092,7 +6093,7 @@
         <v>235</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6119,13 +6120,13 @@
         <v>4</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>223</v>
@@ -6152,7 +6153,7 @@
         <v>235</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6179,13 +6180,13 @@
         <v>4</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>223</v>
@@ -6212,7 +6213,7 @@
         <v>235</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6239,13 +6240,13 @@
         <v>4</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>223</v>
@@ -6272,7 +6273,7 @@
         <v>235</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6314,7 +6315,7 @@
         <v>410</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="N54" t="s">
         <v>385</v>
@@ -6332,7 +6333,7 @@
         <v>236</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6374,7 +6375,7 @@
         <v>312</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="N55" t="s">
         <v>389</v>
@@ -6392,7 +6393,7 @@
         <v>236</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6434,7 +6435,7 @@
         <v>312</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="N56" t="s">
         <v>297</v>
@@ -6452,7 +6453,7 @@
         <v>236</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6494,7 +6495,7 @@
         <v>418</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="N57" t="s">
         <v>391</v>
@@ -6512,7 +6513,7 @@
         <v>236</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6523,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>20</v>
@@ -6539,13 +6540,13 @@
         <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>223</v>
@@ -6554,7 +6555,7 @@
         <v>223</v>
       </c>
       <c r="M58" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N58" t="s">
         <v>17</v>
@@ -6572,7 +6573,7 @@
         <v>235</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6583,7 +6584,7 @@
         <v>432</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>21</v>
@@ -6614,7 +6615,7 @@
         <v>410</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="N59" t="s">
         <v>292</v>
@@ -6632,7 +6633,7 @@
         <v>236</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6643,7 +6644,7 @@
         <v>432</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>21</v>
@@ -6674,7 +6675,7 @@
         <v>312</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="N60" t="s">
         <v>293</v>
@@ -6692,7 +6693,7 @@
         <v>236</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6703,7 +6704,7 @@
         <v>432</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>21</v>
@@ -6734,7 +6735,7 @@
         <v>312</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="N61" t="s">
         <v>294</v>
@@ -6752,7 +6753,7 @@
         <v>236</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6763,7 +6764,7 @@
         <v>432</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>21</v>
@@ -6794,7 +6795,7 @@
         <v>312</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N62" t="s">
         <v>295</v>
@@ -6812,7 +6813,7 @@
         <v>236</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6823,7 +6824,7 @@
         <v>432</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>21</v>
@@ -6854,7 +6855,7 @@
         <v>312</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="N63" t="s">
         <v>296</v>
@@ -6872,7 +6873,7 @@
         <v>236</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6883,7 +6884,7 @@
         <v>432</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>20</v>
@@ -6899,13 +6900,13 @@
         <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>223</v>
@@ -6914,7 +6915,7 @@
         <v>223</v>
       </c>
       <c r="M64" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="N64" t="s">
         <v>17</v>
@@ -6932,7 +6933,7 @@
         <v>235</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6943,7 +6944,7 @@
         <v>432</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>20</v>
@@ -6959,13 +6960,13 @@
         <v>4</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>223</v>
@@ -6974,7 +6975,7 @@
         <v>223</v>
       </c>
       <c r="M65" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N65" t="s">
         <v>17</v>
@@ -6992,7 +6993,7 @@
         <v>235</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7003,7 +7004,7 @@
         <v>432</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>20</v>
@@ -7019,13 +7020,13 @@
         <v>4</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>223</v>
@@ -7034,7 +7035,7 @@
         <v>223</v>
       </c>
       <c r="M66" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="N66" t="s">
         <v>17</v>
@@ -7052,7 +7053,7 @@
         <v>235</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7063,7 +7064,7 @@
         <v>432</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>21</v>
@@ -7073,7 +7074,7 @@
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G67" s="1">
         <v>4</v>
@@ -7082,19 +7083,19 @@
         <v>448</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="M67" s="13" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="N67" t="s">
         <v>438</v>
@@ -7112,7 +7113,7 @@
         <v>445</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7123,7 +7124,7 @@
         <v>432</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>21</v>
@@ -7133,7 +7134,7 @@
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G68" s="1">
         <v>4</v>
@@ -7151,10 +7152,10 @@
         <v>223</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="N68" s="13" t="s">
         <v>439</v>
@@ -7172,7 +7173,7 @@
         <v>446</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7183,7 +7184,7 @@
         <v>432</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>21</v>
@@ -7193,7 +7194,7 @@
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G69" s="1">
         <v>4</v>
@@ -7202,19 +7203,19 @@
         <v>450</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>454</v>
-      </c>
       <c r="M69" s="13" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>440</v>
@@ -7232,7 +7233,7 @@
         <v>27</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7243,7 +7244,7 @@
         <v>432</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>21</v>
@@ -7253,7 +7254,7 @@
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G70" s="1">
         <v>4</v>
@@ -7262,19 +7263,19 @@
         <v>451</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L70" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>454</v>
-      </c>
       <c r="M70" s="13" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="N70" s="13" t="s">
         <v>441</v>
@@ -7292,7 +7293,7 @@
         <v>447</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7303,7 +7304,7 @@
         <v>432</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>20</v>
@@ -7319,13 +7320,13 @@
         <v>4</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>223</v>
@@ -7334,7 +7335,7 @@
         <v>223</v>
       </c>
       <c r="M71" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N71" t="s">
         <v>17</v>
@@ -7352,7 +7353,7 @@
         <v>235</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7363,7 +7364,7 @@
         <v>432</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>21</v>
@@ -7373,19 +7374,19 @@
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G72" s="1">
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I72" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J72" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>223</v>
@@ -7394,10 +7395,10 @@
         <v>312</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="N72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O72" t="s">
         <v>18</v>
@@ -7412,7 +7413,7 @@
         <v>236</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7423,7 +7424,7 @@
         <v>432</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>21</v>
@@ -7433,31 +7434,31 @@
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G73" s="1">
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>468</v>
+        <v>776</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>468</v>
+        <v>776</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M73" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="N73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O73" t="s">
         <v>18</v>
@@ -7472,7 +7473,7 @@
         <v>236</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7483,7 +7484,7 @@
         <v>432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>21</v>
@@ -7493,31 +7494,31 @@
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G74" s="1">
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>469</v>
+        <v>777</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>469</v>
+        <v>777</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M74" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O74" t="s">
         <v>18</v>
@@ -7532,7 +7533,7 @@
         <v>236</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7543,7 +7544,7 @@
         <v>432</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>21</v>
@@ -7553,31 +7554,31 @@
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G75" s="1">
         <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>470</v>
+        <v>778</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>470</v>
+        <v>778</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="N75" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O75" t="s">
         <v>18</v>
@@ -7592,7 +7593,7 @@
         <v>236</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7603,7 +7604,7 @@
         <v>432</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>20</v>
@@ -7619,13 +7620,13 @@
         <v>4</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>223</v>
@@ -7634,7 +7635,7 @@
         <v>223</v>
       </c>
       <c r="M76" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N76" t="s">
         <v>17</v>
@@ -7652,7 +7653,7 @@
         <v>235</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7663,7 +7664,7 @@
         <v>432</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>21</v>
@@ -7694,7 +7695,7 @@
         <v>410</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="N77" t="s">
         <v>289</v>
@@ -7712,7 +7713,7 @@
         <v>236</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7723,7 +7724,7 @@
         <v>432</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>20</v>
@@ -7739,13 +7740,13 @@
         <v>4</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>223</v>
@@ -7754,7 +7755,7 @@
         <v>223</v>
       </c>
       <c r="M78" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="N78" t="s">
         <v>17</v>
@@ -7772,7 +7773,7 @@
         <v>235</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7783,7 +7784,7 @@
         <v>432</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>21</v>
@@ -7793,31 +7794,31 @@
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G79" s="1">
         <v>4</v>
       </c>
       <c r="H79" t="s">
+        <v>485</v>
+      </c>
+      <c r="I79" t="s">
         <v>489</v>
       </c>
-      <c r="I79" t="s">
-        <v>493</v>
-      </c>
       <c r="J79" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M79" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="N79" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O79" t="s">
         <v>18</v>
@@ -7832,7 +7833,7 @@
         <v>236</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7843,7 +7844,7 @@
         <v>432</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>21</v>
@@ -7853,28 +7854,28 @@
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G80" s="1">
         <v>4</v>
       </c>
       <c r="H80" t="s">
+        <v>486</v>
+      </c>
+      <c r="I80" t="s">
+        <v>491</v>
+      </c>
+      <c r="J80" t="s">
+        <v>491</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I80" t="s">
-        <v>495</v>
-      </c>
-      <c r="J80" t="s">
-        <v>495</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="M80" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="N80" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O80" t="s">
         <v>18</v>
@@ -7889,7 +7890,7 @@
         <v>236</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7900,7 +7901,7 @@
         <v>432</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>21</v>
@@ -7910,31 +7911,31 @@
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G81" s="1">
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I81" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J81" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K81" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M81" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="N81" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O81" t="s">
         <v>18</v>
@@ -7946,10 +7947,10 @@
         <v>26</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7960,7 +7961,7 @@
         <v>432</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>21</v>
@@ -7970,46 +7971,46 @@
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G82" s="1">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M82" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="N82" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O82" t="s">
         <v>18</v>
       </c>
       <c r="P82" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q82" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8020,7 +8021,7 @@
         <v>432</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>20</v>
@@ -8036,13 +8037,13 @@
         <v>4</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>223</v>
@@ -8051,7 +8052,7 @@
         <v>223</v>
       </c>
       <c r="M83" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="N83" t="s">
         <v>17</v>
@@ -8069,7 +8070,7 @@
         <v>235</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8080,7 +8081,7 @@
         <v>432</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>21</v>
@@ -8111,7 +8112,7 @@
         <v>410</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="N84" t="s">
         <v>386</v>
@@ -8120,16 +8121,16 @@
         <v>18</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q84" t="s">
         <v>26</v>
       </c>
       <c r="R84" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8140,7 +8141,7 @@
         <v>432</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
@@ -8156,13 +8157,13 @@
         <v>4</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>223</v>
@@ -8171,7 +8172,7 @@
         <v>223</v>
       </c>
       <c r="M85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="N85" t="s">
         <v>17</v>
@@ -8189,7 +8190,7 @@
         <v>235</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8216,13 +8217,13 @@
         <v>4</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>223</v>
@@ -8249,7 +8250,7 @@
         <v>235</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8291,7 +8292,7 @@
         <v>75</v>
       </c>
       <c r="M87" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="N87" t="s">
         <v>116</v>
@@ -8309,7 +8310,7 @@
         <v>236</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8351,7 +8352,7 @@
         <v>75</v>
       </c>
       <c r="M88" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="N88" t="s">
         <v>117</v>
@@ -8369,7 +8370,7 @@
         <v>236</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8411,7 +8412,7 @@
         <v>75</v>
       </c>
       <c r="M89" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="N89" t="s">
         <v>118</v>
@@ -8429,7 +8430,7 @@
         <v>236</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8471,7 +8472,7 @@
         <v>85</v>
       </c>
       <c r="M90" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="N90" t="s">
         <v>119</v>
@@ -8489,7 +8490,7 @@
         <v>236</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8531,7 +8532,7 @@
         <v>85</v>
       </c>
       <c r="M91" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="N91" t="s">
         <v>120</v>
@@ -8549,7 +8550,7 @@
         <v>236</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8570,19 +8571,19 @@
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G92" s="1">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>223</v>
@@ -8591,10 +8592,10 @@
         <v>75</v>
       </c>
       <c r="M92" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="N92" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O92" t="s">
         <v>18</v>
@@ -8609,7 +8610,7 @@
         <v>236</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8630,19 +8631,19 @@
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G93" s="1">
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>223</v>
@@ -8651,10 +8652,10 @@
         <v>75</v>
       </c>
       <c r="M93" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="N93" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O93" t="s">
         <v>18</v>
@@ -8669,7 +8670,7 @@
         <v>236</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8690,19 +8691,19 @@
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G94" s="1">
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>223</v>
@@ -8711,10 +8712,10 @@
         <v>75</v>
       </c>
       <c r="M94" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="N94" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O94" t="s">
         <v>18</v>
@@ -8729,7 +8730,7 @@
         <v>236</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8750,19 +8751,19 @@
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G95" s="1">
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>223</v>
@@ -8771,10 +8772,10 @@
         <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="N95" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O95" t="s">
         <v>18</v>
@@ -8789,7 +8790,7 @@
         <v>236</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8816,13 +8817,13 @@
         <v>5</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I96" s="22" t="s">
         <v>16</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>223</v>
@@ -8849,7 +8850,7 @@
         <v>235</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8909,7 +8910,7 @@
         <v>236</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8969,7 +8970,7 @@
         <v>236</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -8996,13 +8997,13 @@
         <v>5</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I99" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>223</v>
@@ -9029,7 +9030,7 @@
         <v>235</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9089,7 +9090,7 @@
         <v>236</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9116,13 +9117,13 @@
         <v>5</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I101" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>223</v>
@@ -9149,7 +9150,7 @@
         <v>235</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9209,7 +9210,7 @@
         <v>236</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9269,7 +9270,7 @@
         <v>236</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9296,13 +9297,13 @@
         <v>5</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I104" s="22" t="s">
         <v>42</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>223</v>
@@ -9329,7 +9330,7 @@
         <v>98</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9389,7 +9390,7 @@
         <v>27</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9449,7 +9450,7 @@
         <v>27</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9509,7 +9510,7 @@
         <v>27</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9569,7 +9570,7 @@
         <v>27</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9629,7 +9630,7 @@
         <v>27</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9656,13 +9657,13 @@
         <v>5</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I110" s="22" t="s">
         <v>184</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>223</v>
@@ -9689,7 +9690,7 @@
         <v>235</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9749,7 +9750,7 @@
         <v>236</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9776,13 +9777,13 @@
         <v>5</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I112" s="22" t="s">
         <v>62</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>223</v>
@@ -9809,7 +9810,7 @@
         <v>235</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9869,7 +9870,7 @@
         <v>236</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9883,14 +9884,14 @@
         <v>142</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G114" s="4">
         <v>5</v>
@@ -9903,16 +9904,16 @@
         <v>144</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>143</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>221</v>
@@ -9927,7 +9928,7 @@
         <v>236</v>
       </c>
       <c r="S114" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9941,7 +9942,7 @@
         <v>142</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="1"/>
@@ -9958,19 +9959,19 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>143</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O115" s="5" t="s">
         <v>221</v>
@@ -9979,13 +9980,13 @@
         <v>219</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>236</v>
       </c>
       <c r="S115" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -9999,7 +10000,7 @@
         <v>142</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="1"/>
@@ -10025,10 +10026,10 @@
         <v>149</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O116" s="4" t="s">
         <v>18</v>
@@ -10043,7 +10044,7 @@
         <v>236</v>
       </c>
       <c r="S116" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10057,7 +10058,7 @@
         <v>142</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="1"/>
@@ -10083,10 +10084,10 @@
         <v>149</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O117" s="4" t="s">
         <v>18</v>
@@ -10101,7 +10102,7 @@
         <v>236</v>
       </c>
       <c r="S117" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10115,7 +10116,7 @@
         <v>142</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="1"/>
@@ -10141,10 +10142,10 @@
         <v>154</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O118" s="4" t="s">
         <v>18</v>
@@ -10159,7 +10160,7 @@
         <v>236</v>
       </c>
       <c r="S118" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10173,7 +10174,7 @@
         <v>142</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="1"/>
@@ -10193,16 +10194,16 @@
         <v>155</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>156</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O119" s="4" t="s">
         <v>18</v>
@@ -10217,7 +10218,7 @@
         <v>236</v>
       </c>
       <c r="S119" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10231,7 +10232,7 @@
         <v>142</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="1"/>
@@ -10248,19 +10249,19 @@
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>160</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O120" s="4" t="s">
         <v>18</v>
@@ -10272,10 +10273,10 @@
         <v>161</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="S120" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10289,7 +10290,7 @@
         <v>142</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="1"/>
@@ -10315,10 +10316,10 @@
         <v>160</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O121" s="4" t="s">
         <v>18</v>
@@ -10333,7 +10334,7 @@
         <v>236</v>
       </c>
       <c r="S121" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10347,7 +10348,7 @@
         <v>142</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="1"/>
@@ -10367,16 +10368,16 @@
         <v>167</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>160</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O122" s="4" t="s">
         <v>18</v>
@@ -10391,7 +10392,7 @@
         <v>236</v>
       </c>
       <c r="S122" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10405,7 +10406,7 @@
         <v>142</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="1"/>
@@ -10431,10 +10432,10 @@
         <v>160</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O123" s="4" t="s">
         <v>18</v>
@@ -10449,7 +10450,7 @@
         <v>236</v>
       </c>
       <c r="S123" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10463,7 +10464,7 @@
         <v>142</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="1"/>
@@ -10489,10 +10490,10 @@
         <v>160</v>
       </c>
       <c r="M124" s="19" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N124" s="20" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O124" s="4" t="s">
         <v>18</v>
@@ -10507,7 +10508,7 @@
         <v>236</v>
       </c>
       <c r="S124" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10534,13 +10535,13 @@
         <v>6</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>223</v>
@@ -10567,7 +10568,7 @@
         <v>235</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10588,7 +10589,7 @@
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G126" s="1">
         <v>6</v>
@@ -10606,7 +10607,7 @@
         <v>227</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M126" t="s">
         <v>257</v>
@@ -10615,7 +10616,7 @@
         <v>70</v>
       </c>
       <c r="O126" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P126" t="s">
         <v>19</v>
@@ -10624,10 +10625,10 @@
         <v>73</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10687,7 +10688,7 @@
         <v>236</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10747,7 +10748,7 @@
         <v>236</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10774,13 +10775,13 @@
         <v>6</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>223</v>
@@ -10807,7 +10808,7 @@
         <v>235</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10846,7 +10847,7 @@
         <v>229</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M130" t="s">
         <v>260</v>
@@ -10855,7 +10856,7 @@
         <v>77</v>
       </c>
       <c r="O130" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P130" t="s">
         <v>19</v>
@@ -10864,10 +10865,10 @@
         <v>73</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10909,7 +10910,7 @@
         <v>75</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="N131" s="12" t="s">
         <v>78</v>
@@ -10927,7 +10928,7 @@
         <v>236</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -10987,7 +10988,7 @@
         <v>236</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11014,13 +11015,13 @@
         <v>6</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>223</v>
@@ -11047,7 +11048,7 @@
         <v>235</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11068,7 +11069,7 @@
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G134" s="1">
         <v>6</v>
@@ -11086,7 +11087,7 @@
         <v>231</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M134" t="s">
         <v>263</v>
@@ -11095,7 +11096,7 @@
         <v>88</v>
       </c>
       <c r="O134" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P134" t="s">
         <v>19</v>
@@ -11104,10 +11105,10 @@
         <v>73</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11128,7 +11129,7 @@
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G135" s="1">
         <v>6</v>
@@ -11167,7 +11168,7 @@
         <v>236</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11194,13 +11195,13 @@
         <v>6</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>223</v>
@@ -11227,7 +11228,7 @@
         <v>235</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="137" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11254,13 +11255,13 @@
         <v>6</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>93</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>223</v>
@@ -11287,7 +11288,7 @@
         <v>235</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="138" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11308,7 +11309,7 @@
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G138" s="1">
         <v>6</v>
@@ -11347,7 +11348,7 @@
         <v>236</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11368,7 +11369,7 @@
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G139" s="1">
         <v>6</v>
@@ -11407,7 +11408,7 @@
         <v>236</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11428,7 +11429,7 @@
         <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G140" s="1">
         <v>6</v>
@@ -11467,7 +11468,7 @@
         <v>236</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11488,7 +11489,7 @@
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G141" s="1">
         <v>6</v>
@@ -11527,7 +11528,7 @@
         <v>236</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11554,13 +11555,13 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>223</v>
@@ -11587,7 +11588,7 @@
         <v>235</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11608,7 +11609,7 @@
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G143" s="1">
         <v>6</v>
@@ -11626,16 +11627,16 @@
         <v>233</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M143" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N143" t="s">
         <v>115</v>
       </c>
       <c r="O143" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P143" t="s">
         <v>19</v>
@@ -11644,10 +11645,10 @@
         <v>73</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="144" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11689,7 +11690,7 @@
         <v>75</v>
       </c>
       <c r="M144" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="N144" t="s">
         <v>116</v>
@@ -11707,7 +11708,7 @@
         <v>236</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11749,7 +11750,7 @@
         <v>75</v>
       </c>
       <c r="M145" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="N145" t="s">
         <v>117</v>
@@ -11767,7 +11768,7 @@
         <v>236</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="146" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11809,7 +11810,7 @@
         <v>75</v>
       </c>
       <c r="M146" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="N146" t="s">
         <v>118</v>
@@ -11827,7 +11828,7 @@
         <v>236</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11869,7 +11870,7 @@
         <v>85</v>
       </c>
       <c r="M147" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="N147" t="s">
         <v>119</v>
@@ -11887,7 +11888,7 @@
         <v>236</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11929,7 +11930,7 @@
         <v>85</v>
       </c>
       <c r="M148" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="N148" t="s">
         <v>120</v>
@@ -11947,7 +11948,7 @@
         <v>236</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -11974,13 +11975,13 @@
         <v>6</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>223</v>
@@ -12007,7 +12008,7 @@
         <v>235</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -12028,7 +12029,7 @@
         <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G150" s="1">
         <v>6</v>
@@ -12049,7 +12050,7 @@
         <v>85</v>
       </c>
       <c r="M150" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="N150" t="s">
         <v>123</v>
@@ -12067,7 +12068,7 @@
         <v>236</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -12078,7 +12079,7 @@
         <v>125</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>21</v>
@@ -12109,7 +12110,7 @@
         <v>128</v>
       </c>
       <c r="M151" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="N151" t="s">
         <v>129</v>
@@ -12127,7 +12128,7 @@
         <v>27</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -12138,7 +12139,7 @@
         <v>125</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>21</v>
@@ -12148,7 +12149,7 @@
         <v>151</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G152" s="1">
         <v>7</v>
@@ -12169,7 +12170,7 @@
         <v>128</v>
       </c>
       <c r="M152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="N152" t="s">
         <v>130</v>
@@ -12187,7 +12188,7 @@
         <v>135</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -12198,7 +12199,7 @@
         <v>125</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>21</v>
@@ -12208,7 +12209,7 @@
         <v>152</v>
       </c>
       <c r="F153" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G153" s="1">
         <v>7</v>
@@ -12217,19 +12218,19 @@
         <v>207</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M153" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="N153" t="s">
         <v>131</v>
@@ -12238,7 +12239,7 @@
         <v>18</v>
       </c>
       <c r="P153" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q153" t="s">
         <v>26</v>
@@ -12247,7 +12248,7 @@
         <v>136</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -12283,13 +12284,13 @@
         <v>140</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M154" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="N154" t="s">
         <v>132</v>
@@ -12307,18 +12308,18 @@
         <v>137</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>20</v>
@@ -12349,7 +12350,7 @@
         <v>223</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>17</v>
@@ -12367,18 +12368,18 @@
         <v>235</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="156" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>21</v>
@@ -12388,31 +12389,31 @@
         <v>155</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G156" s="1">
         <v>8</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M156" s="10" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>442</v>
@@ -12421,24 +12422,24 @@
         <v>19</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R156" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>21</v>
@@ -12448,31 +12449,31 @@
         <v>156</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G157" s="1">
         <v>8</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M157" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>442</v>
@@ -12481,24 +12482,24 @@
         <v>19</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R157" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>21</v>
@@ -12508,31 +12509,31 @@
         <v>157</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G158" s="1">
         <v>8</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M158" s="10" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>442</v>
@@ -12541,24 +12542,24 @@
         <v>19</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="159" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>21</v>
@@ -12568,13 +12569,13 @@
         <v>158</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G159" s="1">
         <v>8</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>231</v>
@@ -12586,13 +12587,13 @@
         <v>223</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M159" s="10" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>442</v>
@@ -12601,24 +12602,24 @@
         <v>19</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="160" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>21</v>
@@ -12628,13 +12629,13 @@
         <v>159</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G160" s="1">
         <v>8</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>229</v>
@@ -12646,13 +12647,13 @@
         <v>223</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M160" s="10" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>442</v>
@@ -12661,24 +12662,24 @@
         <v>19</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>21</v>
@@ -12688,13 +12689,13 @@
         <v>160</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G161" s="1">
         <v>8</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>233</v>
@@ -12706,13 +12707,13 @@
         <v>223</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M161" s="10" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>442</v>
@@ -12721,24 +12722,24 @@
         <v>19</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="162" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>21</v>
@@ -12748,13 +12749,13 @@
         <v>161</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G162" s="1">
         <v>8</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>227</v>
@@ -12766,13 +12767,13 @@
         <v>223</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M162" s="10" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>442</v>
@@ -12781,24 +12782,24 @@
         <v>19</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R162" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>21</v>
@@ -12808,31 +12809,31 @@
         <v>162</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G163" s="1">
         <v>8</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M163" s="10" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>442</v>
@@ -12841,24 +12842,24 @@
         <v>19</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R163" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="164" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>21</v>
@@ -12868,31 +12869,31 @@
         <v>163</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G164" s="1">
         <v>8</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M164" s="10" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>442</v>
@@ -12901,24 +12902,24 @@
         <v>19</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>21</v>
@@ -12928,31 +12929,31 @@
         <v>164</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G165" s="1">
         <v>8</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M165" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>442</v>
@@ -12961,24 +12962,24 @@
         <v>19</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R165" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>21</v>
@@ -12988,31 +12989,31 @@
         <v>165</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G166" s="1">
         <v>8</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>442</v>
@@ -13021,24 +13022,24 @@
         <v>19</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>21</v>
@@ -13048,31 +13049,31 @@
         <v>166</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G167" s="1">
         <v>8</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M167" s="10" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>442</v>
@@ -13084,21 +13085,21 @@
         <v>134</v>
       </c>
       <c r="R167" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>21</v>
@@ -13108,31 +13109,31 @@
         <v>167</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G168" s="1">
         <v>8</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>442</v>
@@ -13144,21 +13145,21 @@
         <v>26</v>
       </c>
       <c r="R168" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>21</v>
@@ -13168,31 +13169,31 @@
         <v>168</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G169" s="1">
         <v>8</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>18</v>
@@ -13207,18 +13208,18 @@
         <v>27</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>21</v>
@@ -13228,31 +13229,31 @@
         <v>169</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G170" s="1">
         <v>8</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>18</v>
@@ -13267,18 +13268,18 @@
         <v>27</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="171" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>21</v>
@@ -13288,31 +13289,31 @@
         <v>170</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G171" s="1">
         <v>8</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>18</v>
@@ -13327,18 +13328,18 @@
         <v>27</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="172" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>20</v>
@@ -13357,7 +13358,7 @@
         <v>86</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>86</v>
@@ -13369,7 +13370,7 @@
         <v>223</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>17</v>
@@ -13387,18 +13388,18 @@
         <v>235</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>21</v>
@@ -13408,31 +13409,31 @@
         <v>172</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G173" s="1">
         <v>8</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>442</v>
@@ -13444,21 +13445,21 @@
         <v>26</v>
       </c>
       <c r="R173" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>20</v>
@@ -13489,7 +13490,7 @@
         <v>223</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>17</v>
@@ -13507,18 +13508,18 @@
         <v>235</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="175" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>20</v>
@@ -13549,7 +13550,7 @@
         <v>223</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>17</v>
@@ -13567,18 +13568,18 @@
         <v>235</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="176" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>20</v>
@@ -13609,7 +13610,7 @@
         <v>223</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>17</v>
@@ -13627,18 +13628,18 @@
         <v>235</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="177" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>21</v>
@@ -13648,31 +13649,31 @@
         <v>176</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G177" s="1">
         <v>8</v>
       </c>
       <c r="H177" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="J177" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="I177" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="J177" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="M177" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>18</v>
@@ -13681,24 +13682,24 @@
         <v>19</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="R177" s="1" t="s">
         <v>236</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="178" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>21</v>
@@ -13708,31 +13709,31 @@
         <v>177</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G178" s="1">
         <v>8</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>18</v>
@@ -13741,24 +13742,24 @@
         <v>19</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="R178" s="1" t="s">
         <v>236</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="179" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>20</v>
@@ -13774,13 +13775,13 @@
         <v>9</v>
       </c>
       <c r="H179" s="22" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I179" s="22" t="s">
         <v>382</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>223</v>
@@ -13789,7 +13790,7 @@
         <v>223</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>17</v>
@@ -13807,18 +13808,18 @@
         <v>235</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="180" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>21</v>
@@ -13828,31 +13829,31 @@
         <v>179</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G180" s="1">
         <v>9</v>
       </c>
       <c r="H180" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I180" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="J180" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>18</v>
@@ -13867,18 +13868,18 @@
         <v>236</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>21</v>
@@ -13888,31 +13889,31 @@
         <v>180</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G181" s="1">
         <v>9</v>
       </c>
       <c r="H181" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K181" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L181" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="M181" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>18</v>
@@ -13927,18 +13928,18 @@
         <v>236</v>
       </c>
       <c r="S181" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="182" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>21</v>
@@ -13948,31 +13949,31 @@
         <v>181</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G182" s="1">
         <v>9</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>18</v>
@@ -13987,18 +13988,18 @@
         <v>236</v>
       </c>
       <c r="S182" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="183" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>21</v>
@@ -14008,31 +14009,31 @@
         <v>182</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G183" s="1">
         <v>9</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>18</v>
@@ -14047,18 +14048,18 @@
         <v>236</v>
       </c>
       <c r="S183" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="184" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>21</v>
@@ -14068,57 +14069,57 @@
         <v>183</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G184" s="1">
         <v>9</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I184" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J184" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R184" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="185" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>20</v>
@@ -14134,13 +14135,13 @@
         <v>10</v>
       </c>
       <c r="H185" s="22" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I185" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>223</v>
@@ -14149,7 +14150,7 @@
         <v>223</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="N185" s="1" t="s">
         <v>17</v>
@@ -14167,18 +14168,18 @@
         <v>235</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="186" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>20</v>
@@ -14194,13 +14195,13 @@
         <v>10</v>
       </c>
       <c r="H186" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I186" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>223</v>
@@ -14209,7 +14210,7 @@
         <v>223</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="N186" s="1" t="s">
         <v>17</v>
@@ -14227,18 +14228,18 @@
         <v>235</v>
       </c>
       <c r="S186" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>20</v>
@@ -14254,13 +14255,13 @@
         <v>10</v>
       </c>
       <c r="H187" s="22" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I187" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>223</v>
@@ -14269,7 +14270,7 @@
         <v>223</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>17</v>
@@ -14287,7 +14288,7 @@
         <v>235</v>
       </c>
       <c r="S187" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
